--- a/analysis_line_chart(AutoRecovered).xlsx
+++ b/analysis_line_chart(AutoRecovered).xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nodir\OneDrive\Desktop\final_experiments\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\vodel\VODELYA\PhD\SmartChainDB\smartchaindb-experiments\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{07ACD0BA-35ED-4ECD-A18C-BF1BAB598FA9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0641B487-4988-497F-A688-3A635C9537ED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="8670" yWindow="315" windowWidth="20130" windowHeight="11550" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="9636" yWindow="954" windowWidth="11154" windowHeight="10542" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="CAPs" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="13">
   <si>
     <t>Capabilities</t>
   </si>
@@ -218,19 +218,7 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="0" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -251,7 +239,19 @@
     <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="2" fontId="0" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -5465,7 +5465,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>'tx-num'!$A$21</c:f>
+              <c:f>'tx-num'!$A$4</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -5544,7 +5544,7 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>'tx-num'!$B$20:$E$20</c:f>
+              <c:f>'tx-num'!$B$3:$E$3</c:f>
               <c:strCache>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
@@ -5564,7 +5564,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'tx-num'!$B$21:$E$21</c:f>
+              <c:f>'tx-num'!$B$4:$E$4</c:f>
               <c:numCache>
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="4"/>
@@ -5594,7 +5594,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>'tx-num'!$A$29</c:f>
+              <c:f>'tx-num'!$A$12</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -5673,7 +5673,7 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>'tx-num'!$B$20:$E$20</c:f>
+              <c:f>'tx-num'!$B$3:$E$3</c:f>
               <c:strCache>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
@@ -5693,7 +5693,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'tx-num'!$C$29:$F$29</c:f>
+              <c:f>'tx-num'!$C$12:$F$12</c:f>
               <c:numCache>
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="4"/>
@@ -6116,7 +6116,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>'tx-num'!$A$22</c:f>
+              <c:f>'tx-num'!$A$5</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -6195,7 +6195,7 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>'tx-num'!$C$28:$F$28</c:f>
+              <c:f>'tx-num'!$C$11:$F$11</c:f>
               <c:strCache>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
@@ -6215,7 +6215,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'tx-num'!$B$22:$E$22</c:f>
+              <c:f>'tx-num'!$B$5:$E$5</c:f>
               <c:numCache>
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="4"/>
@@ -6245,7 +6245,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>'tx-num'!$A$30</c:f>
+              <c:f>'tx-num'!$A$13</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -6324,7 +6324,7 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>'tx-num'!$C$28:$F$28</c:f>
+              <c:f>'tx-num'!$C$11:$F$11</c:f>
               <c:strCache>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
@@ -6344,7 +6344,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'tx-num'!$C$30:$F$30</c:f>
+              <c:f>'tx-num'!$C$13:$F$13</c:f>
               <c:numCache>
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="4"/>
@@ -11273,16 +11273,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>389171</xdr:colOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>241253</xdr:colOff>
       <xdr:row>5</xdr:row>
-      <xdr:rowOff>160197</xdr:rowOff>
+      <xdr:rowOff>7797</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>84371</xdr:colOff>
-      <xdr:row>20</xdr:row>
-      <xdr:rowOff>45897</xdr:rowOff>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>577430</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>77273</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -11617,28 +11617,28 @@
       <selection activeCell="F17" sqref="F17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
-    <col min="1" max="1" width="11.140625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="9.5703125" style="1" customWidth="1"/>
+    <col min="1" max="1" width="11.15625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="9.578125" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A1" s="16" t="s">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A1" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="B1" s="16"/>
+      <c r="B1" s="12"/>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" s="2"/>
-      <c r="B2" s="18" t="s">
+      <c r="B2" s="14" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="19"/>
-      <c r="D2" s="19"/>
-      <c r="E2" s="20"/>
+      <c r="C2" s="15"/>
+      <c r="D2" s="15"/>
+      <c r="E2" s="16"/>
     </row>
-    <row r="3" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" s="2" t="s">
         <v>0</v>
       </c>
@@ -11655,7 +11655,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" s="2">
         <v>15</v>
       </c>
@@ -11672,7 +11672,7 @@
         <v>1243.5999999999999</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" s="2">
         <v>30</v>
       </c>
@@ -11689,7 +11689,7 @@
         <v>1317.65</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A6" s="2">
         <v>45</v>
       </c>
@@ -11706,7 +11706,7 @@
         <v>1378.6</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A7" s="2">
         <v>60</v>
       </c>
@@ -11723,27 +11723,27 @@
         <v>1332.3</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A8" s="3"/>
       <c r="B8" s="3"/>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A9" s="17" t="s">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A9" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="B9" s="17"/>
+      <c r="B9" s="13"/>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A10" s="4"/>
-      <c r="B10" s="18" t="s">
+      <c r="B10" s="14" t="s">
         <v>1</v>
       </c>
-      <c r="C10" s="19"/>
-      <c r="D10" s="19"/>
-      <c r="E10" s="19"/>
-      <c r="F10" s="20"/>
+      <c r="C10" s="15"/>
+      <c r="D10" s="15"/>
+      <c r="E10" s="15"/>
+      <c r="F10" s="16"/>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A11" s="2" t="s">
         <v>0</v>
       </c>
@@ -11763,7 +11763,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A12" s="2">
         <v>15</v>
       </c>
@@ -11783,7 +11783,7 @@
         <v>1313</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A13" s="2">
         <v>30</v>
       </c>
@@ -11803,7 +11803,7 @@
         <v>1479</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A14" s="2">
         <v>45</v>
       </c>
@@ -11823,7 +11823,7 @@
         <v>4679</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A15" s="2">
         <v>60</v>
       </c>
@@ -11858,90 +11858,90 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{57E4E959-0883-4ECC-862F-8D76850309AF}">
-  <dimension ref="A1:F32"/>
+  <dimension ref="A1:F15"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="P24" sqref="P24"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="F21" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
-    <col min="2" max="2" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A1" s="21" t="s">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A1" s="17" t="s">
         <v>3</v>
       </c>
-      <c r="B1" s="21"/>
+      <c r="B1" s="17"/>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" s="7"/>
-      <c r="B2" s="11" t="s">
+      <c r="B2" s="18" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="12"/>
-      <c r="D2" s="12"/>
-      <c r="E2" s="12"/>
-      <c r="F2" s="13"/>
+      <c r="C2" s="19"/>
+      <c r="D2" s="19"/>
+      <c r="E2" s="19"/>
+      <c r="F2" s="20"/>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="B3" s="9" t="s">
+      <c r="B3" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="D3" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="E3" s="9" t="s">
         <v>2</v>
-      </c>
-      <c r="C3" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="D3" s="10" t="s">
-        <v>6</v>
-      </c>
-      <c r="E3" s="10" t="s">
-        <v>7</v>
       </c>
       <c r="F3" s="10" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="B4" s="22">
+      <c r="B4" s="11">
+        <v>1317.65</v>
+      </c>
+      <c r="C4" s="11">
+        <v>10286.07</v>
+      </c>
+      <c r="D4" s="11">
+        <v>243.3</v>
+      </c>
+      <c r="E4" s="11">
         <v>217.01400000000001</v>
-      </c>
-      <c r="C4" s="22">
-        <v>243.3</v>
-      </c>
-      <c r="D4" s="22">
-        <v>10286.07</v>
-      </c>
-      <c r="E4" s="22">
-        <v>1317.65</v>
       </c>
       <c r="F4" s="8"/>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="B5" s="22">
+      <c r="B5" s="11">
+        <v>1468.95</v>
+      </c>
+      <c r="C5" s="11">
+        <v>10992.1468</v>
+      </c>
+      <c r="D5" s="11">
+        <v>250.29</v>
+      </c>
+      <c r="E5" s="11">
         <v>231.30840000000001</v>
-      </c>
-      <c r="C5" s="22">
-        <v>250.29</v>
-      </c>
-      <c r="D5" s="22">
-        <v>10992.1468</v>
-      </c>
-      <c r="E5" s="22">
-        <v>1468.95</v>
       </c>
       <c r="F5" s="8"/>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A6" s="8"/>
       <c r="B6" s="8"/>
       <c r="C6" s="8"/>
@@ -11949,7 +11949,7 @@
       <c r="E6" s="8"/>
       <c r="F6" s="8"/>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A7" s="8"/>
       <c r="B7" s="8"/>
       <c r="C7" s="8"/>
@@ -11957,87 +11957,87 @@
       <c r="E7" s="8"/>
       <c r="F7" s="8"/>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A8" s="1"/>
       <c r="B8" s="1"/>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A9" s="14" t="s">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A9" s="21" t="s">
         <v>4</v>
       </c>
-      <c r="B9" s="15"/>
+      <c r="B9" s="22"/>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A10" s="7"/>
-      <c r="B10" s="11" t="s">
+      <c r="B10" s="18" t="s">
         <v>1</v>
       </c>
-      <c r="C10" s="12"/>
-      <c r="D10" s="12"/>
-      <c r="E10" s="12"/>
-      <c r="F10" s="13"/>
+      <c r="C10" s="19"/>
+      <c r="D10" s="19"/>
+      <c r="E10" s="19"/>
+      <c r="F10" s="20"/>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A11" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="B11" s="9" t="s">
-        <v>2</v>
+      <c r="B11" s="10" t="s">
+        <v>8</v>
       </c>
       <c r="C11" s="10" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="D11" s="10" t="s">
         <v>6</v>
       </c>
       <c r="E11" s="10" t="s">
-        <v>7</v>
-      </c>
-      <c r="F11" s="10" t="s">
-        <v>8</v>
+        <v>5</v>
+      </c>
+      <c r="F11" s="9" t="s">
+        <v>2</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A12" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="B12" s="22">
+      <c r="B12" s="11">
+        <v>1479.89</v>
+      </c>
+      <c r="C12" s="11">
+        <v>1544</v>
+      </c>
+      <c r="D12" s="11">
+        <v>204.69</v>
+      </c>
+      <c r="E12" s="11">
+        <v>588.4</v>
+      </c>
+      <c r="F12" s="11">
         <v>183.92</v>
       </c>
-      <c r="C12" s="22">
-        <v>588.4</v>
-      </c>
-      <c r="D12" s="22">
-        <v>204.69</v>
-      </c>
-      <c r="E12" s="22">
-        <v>1544</v>
-      </c>
-      <c r="F12" s="22">
-        <v>1479.89</v>
-      </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A13" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="B13" s="22">
+      <c r="B13" s="11">
+        <v>6603.76</v>
+      </c>
+      <c r="C13" s="11">
+        <v>6772</v>
+      </c>
+      <c r="D13" s="11">
+        <v>217.66</v>
+      </c>
+      <c r="E13" s="11">
+        <v>573.75</v>
+      </c>
+      <c r="F13" s="11">
         <v>79.3</v>
       </c>
-      <c r="C13" s="22">
-        <v>573.75</v>
-      </c>
-      <c r="D13" s="22">
-        <v>217.66</v>
-      </c>
-      <c r="E13" s="22">
-        <v>6772</v>
-      </c>
-      <c r="F13" s="22">
-        <v>6603.76</v>
-      </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A14" s="8"/>
       <c r="B14" s="8"/>
       <c r="C14" s="8"/>
@@ -12045,7 +12045,7 @@
       <c r="E14" s="8"/>
       <c r="F14" s="8"/>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A15" s="8"/>
       <c r="B15" s="8"/>
       <c r="C15" s="8"/>
@@ -12053,200 +12053,12 @@
       <c r="E15" s="8"/>
       <c r="F15" s="8"/>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A18" s="21" t="s">
-        <v>3</v>
-      </c>
-      <c r="B18" s="21"/>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A19" s="7"/>
-      <c r="B19" s="11" t="s">
-        <v>1</v>
-      </c>
-      <c r="C19" s="12"/>
-      <c r="D19" s="12"/>
-      <c r="E19" s="12"/>
-      <c r="F19" s="13"/>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A20" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="B20" s="10" t="s">
-        <v>7</v>
-      </c>
-      <c r="C20" s="10" t="s">
-        <v>6</v>
-      </c>
-      <c r="D20" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="E20" s="9" t="s">
-        <v>2</v>
-      </c>
-      <c r="F20" s="10" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A21" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="B21" s="22">
-        <v>1317.65</v>
-      </c>
-      <c r="C21" s="22">
-        <v>10286.07</v>
-      </c>
-      <c r="D21" s="22">
-        <v>243.3</v>
-      </c>
-      <c r="E21" s="22">
-        <v>217.01400000000001</v>
-      </c>
-      <c r="F21" s="8"/>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A22" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="B22" s="22">
-        <v>1468.95</v>
-      </c>
-      <c r="C22" s="22">
-        <v>10992.1468</v>
-      </c>
-      <c r="D22" s="22">
-        <v>250.29</v>
-      </c>
-      <c r="E22" s="22">
-        <v>231.30840000000001</v>
-      </c>
-      <c r="F22" s="8"/>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A23" s="8"/>
-      <c r="B23" s="8"/>
-      <c r="C23" s="8"/>
-      <c r="D23" s="8"/>
-      <c r="E23" s="8"/>
-      <c r="F23" s="8"/>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A24" s="8"/>
-      <c r="B24" s="8"/>
-      <c r="C24" s="8"/>
-      <c r="D24" s="8"/>
-      <c r="E24" s="8"/>
-      <c r="F24" s="8"/>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A25" s="1"/>
-      <c r="B25" s="1"/>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A26" s="14" t="s">
-        <v>4</v>
-      </c>
-      <c r="B26" s="15"/>
-    </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A27" s="7"/>
-      <c r="B27" s="11" t="s">
-        <v>1</v>
-      </c>
-      <c r="C27" s="12"/>
-      <c r="D27" s="12"/>
-      <c r="E27" s="12"/>
-      <c r="F27" s="13"/>
-    </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A28" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="B28" s="10" t="s">
-        <v>8</v>
-      </c>
-      <c r="C28" s="10" t="s">
-        <v>7</v>
-      </c>
-      <c r="D28" s="10" t="s">
-        <v>6</v>
-      </c>
-      <c r="E28" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="F28" s="9" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A29" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="B29" s="22">
-        <v>1479.89</v>
-      </c>
-      <c r="C29" s="22">
-        <v>1544</v>
-      </c>
-      <c r="D29" s="22">
-        <v>204.69</v>
-      </c>
-      <c r="E29" s="22">
-        <v>588.4</v>
-      </c>
-      <c r="F29" s="22">
-        <v>183.92</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A30" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="B30" s="22">
-        <v>6603.76</v>
-      </c>
-      <c r="C30" s="22">
-        <v>6772</v>
-      </c>
-      <c r="D30" s="22">
-        <v>217.66</v>
-      </c>
-      <c r="E30" s="22">
-        <v>573.75</v>
-      </c>
-      <c r="F30" s="22">
-        <v>79.3</v>
-      </c>
-    </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A31" s="8"/>
-      <c r="B31" s="8"/>
-      <c r="C31" s="8"/>
-      <c r="D31" s="8"/>
-      <c r="E31" s="8"/>
-      <c r="F31" s="8"/>
-    </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A32" s="8"/>
-      <c r="B32" s="8"/>
-      <c r="C32" s="8"/>
-      <c r="D32" s="8"/>
-      <c r="E32" s="8"/>
-      <c r="F32" s="8"/>
-    </row>
   </sheetData>
-  <mergeCells count="8">
+  <mergeCells count="4">
+    <mergeCell ref="B10:F10"/>
+    <mergeCell ref="A9:B9"/>
+    <mergeCell ref="B2:F2"/>
     <mergeCell ref="A1:B1"/>
-    <mergeCell ref="B2:F2"/>
-    <mergeCell ref="A9:B9"/>
-    <mergeCell ref="B10:F10"/>
-    <mergeCell ref="B27:F27"/>
-    <mergeCell ref="A26:B26"/>
-    <mergeCell ref="B19:F19"/>
-    <mergeCell ref="A18:B18"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -12262,25 +12074,25 @@
       <selection activeCell="G18" sqref="A1:G18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A1" s="21" t="s">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A1" s="17" t="s">
         <v>3</v>
       </c>
-      <c r="B1" s="21"/>
+      <c r="B1" s="17"/>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" s="7"/>
-      <c r="B2" s="11" t="s">
+      <c r="B2" s="18" t="s">
         <v>9</v>
       </c>
-      <c r="C2" s="12"/>
-      <c r="D2" s="12"/>
-      <c r="E2" s="12"/>
-      <c r="F2" s="13"/>
+      <c r="C2" s="19"/>
+      <c r="D2" s="19"/>
+      <c r="E2" s="19"/>
+      <c r="F2" s="20"/>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" s="8" t="s">
         <v>0</v>
       </c>
@@ -12300,7 +12112,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" s="8">
         <v>15</v>
       </c>
@@ -12310,7 +12122,7 @@
       <c r="E4" s="8"/>
       <c r="F4" s="8"/>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" s="8">
         <v>30</v>
       </c>
@@ -12320,7 +12132,7 @@
       <c r="E5" s="8"/>
       <c r="F5" s="8"/>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A6" s="8">
         <v>45</v>
       </c>
@@ -12330,7 +12142,7 @@
       <c r="E6" s="8"/>
       <c r="F6" s="8"/>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A7" s="8">
         <v>60</v>
       </c>
@@ -12340,27 +12152,27 @@
       <c r="E7" s="8"/>
       <c r="F7" s="8"/>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A8" s="1"/>
       <c r="B8" s="1"/>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A9" s="14" t="s">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A9" s="21" t="s">
         <v>4</v>
       </c>
-      <c r="B9" s="15"/>
+      <c r="B9" s="22"/>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A10" s="7"/>
-      <c r="B10" s="11" t="s">
+      <c r="B10" s="18" t="s">
         <v>9</v>
       </c>
-      <c r="C10" s="12"/>
-      <c r="D10" s="12"/>
-      <c r="E10" s="12"/>
-      <c r="F10" s="13"/>
+      <c r="C10" s="19"/>
+      <c r="D10" s="19"/>
+      <c r="E10" s="19"/>
+      <c r="F10" s="20"/>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A11" s="8" t="s">
         <v>0</v>
       </c>
@@ -12380,7 +12192,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A12" s="8">
         <v>15</v>
       </c>
@@ -12400,7 +12212,7 @@
         <v>1035</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A13" s="8">
         <v>30</v>
       </c>
@@ -12420,7 +12232,7 @@
         <v>1035</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A14" s="8">
         <v>45</v>
       </c>
@@ -12440,7 +12252,7 @@
         <v>1035</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A15" s="8">
         <v>60</v>
       </c>

--- a/analysis_line_chart(AutoRecovered).xlsx
+++ b/analysis_line_chart(AutoRecovered).xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\vodel\VODELYA\PhD\SmartChainDB\smartchaindb-experiments\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0641B487-4988-497F-A688-3A635C9537ED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{58DC9A37-1FF7-4ACC-9DB5-0AA01C7E2784}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="9636" yWindow="954" windowWidth="11154" windowHeight="10542" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="12552" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="CAPs" sheetId="1" r:id="rId1"/>
@@ -236,9 +236,6 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -252,6 +249,9 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -299,10 +299,7 @@
             <a:pPr>
               <a:defRPr sz="1400" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
                 <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
+                  <a:sysClr val="windowText" lastClr="000000"/>
                 </a:solidFill>
                 <a:latin typeface="+mn-lt"/>
                 <a:ea typeface="+mn-ea"/>
@@ -310,7 +307,11 @@
               </a:defRPr>
             </a:pPr>
             <a:r>
-              <a:rPr lang="en-US"/>
+              <a:rPr lang="en-US">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+              </a:rPr>
               <a:t>CREATE and RFQ </a:t>
             </a:r>
           </a:p>
@@ -331,10 +332,7 @@
           <a:pPr>
             <a:defRPr sz="1400" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
               <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
+                <a:sysClr val="windowText" lastClr="000000"/>
               </a:solidFill>
               <a:latin typeface="+mn-lt"/>
               <a:ea typeface="+mn-ea"/>
@@ -432,10 +430,7 @@
                 <a:pPr>
                   <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="75000"/>
-                        <a:lumOff val="25000"/>
-                      </a:schemeClr>
+                      <a:sysClr val="windowText" lastClr="000000"/>
                     </a:solidFill>
                     <a:latin typeface="+mn-lt"/>
                     <a:ea typeface="+mn-ea"/>
@@ -593,10 +588,7 @@
                 <a:pPr>
                   <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="75000"/>
-                        <a:lumOff val="25000"/>
-                      </a:schemeClr>
+                      <a:sysClr val="windowText" lastClr="000000"/>
                     </a:solidFill>
                     <a:latin typeface="+mn-lt"/>
                     <a:ea typeface="+mn-ea"/>
@@ -755,10 +747,7 @@
                 <a:pPr>
                   <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="75000"/>
-                        <a:lumOff val="25000"/>
-                      </a:schemeClr>
+                      <a:sysClr val="windowText" lastClr="000000"/>
                     </a:solidFill>
                     <a:latin typeface="+mn-lt"/>
                     <a:ea typeface="+mn-ea"/>
@@ -874,10 +863,7 @@
                 <a:pPr>
                   <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="75000"/>
-                        <a:lumOff val="25000"/>
-                      </a:schemeClr>
+                      <a:sysClr val="windowText" lastClr="000000"/>
                     </a:solidFill>
                     <a:latin typeface="+mn-lt"/>
                     <a:ea typeface="+mn-ea"/>
@@ -972,10 +958,7 @@
                 <a:pPr>
                   <a:defRPr sz="1000" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="65000"/>
-                        <a:lumOff val="35000"/>
-                      </a:schemeClr>
+                      <a:sysClr val="windowText" lastClr="000000"/>
                     </a:solidFill>
                     <a:latin typeface="+mn-lt"/>
                     <a:ea typeface="+mn-ea"/>
@@ -983,7 +966,11 @@
                   </a:defRPr>
                 </a:pPr>
                 <a:r>
-                  <a:rPr lang="en-US"/>
+                  <a:rPr lang="en-US">
+                    <a:solidFill>
+                      <a:sysClr val="windowText" lastClr="000000"/>
+                    </a:solidFill>
+                  </a:rPr>
                   <a:t>Number of Capabilities</a:t>
                 </a:r>
               </a:p>
@@ -993,8 +980,8 @@
             <c:manualLayout>
               <c:xMode val="edge"/>
               <c:yMode val="edge"/>
-              <c:x val="0.37450555070301028"/>
-              <c:y val="0.88793221499486474"/>
+              <c:x val="0.40165145079508824"/>
+              <c:y val="0.91143280628754075"/>
             </c:manualLayout>
           </c:layout>
           <c:overlay val="0"/>
@@ -1012,10 +999,7 @@
               <a:pPr>
                 <a:defRPr sz="1000" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                   <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="65000"/>
-                      <a:lumOff val="35000"/>
-                    </a:schemeClr>
+                    <a:sysClr val="windowText" lastClr="000000"/>
                   </a:solidFill>
                   <a:latin typeface="+mn-lt"/>
                   <a:ea typeface="+mn-ea"/>
@@ -1048,12 +1032,9 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="1000" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
+                  <a:sysClr val="windowText" lastClr="000000"/>
                 </a:solidFill>
                 <a:latin typeface="+mn-lt"/>
                 <a:ea typeface="+mn-ea"/>
@@ -1100,10 +1081,7 @@
                 <a:pPr>
                   <a:defRPr sz="1000" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="65000"/>
-                        <a:lumOff val="35000"/>
-                      </a:schemeClr>
+                      <a:sysClr val="windowText" lastClr="000000"/>
                     </a:solidFill>
                     <a:latin typeface="+mn-lt"/>
                     <a:ea typeface="+mn-ea"/>
@@ -1111,7 +1089,11 @@
                   </a:defRPr>
                 </a:pPr>
                 <a:r>
-                  <a:rPr lang="en-US"/>
+                  <a:rPr lang="en-US">
+                    <a:solidFill>
+                      <a:sysClr val="windowText" lastClr="000000"/>
+                    </a:solidFill>
+                  </a:rPr>
                   <a:t>Latency  in milliseconds</a:t>
                 </a:r>
               </a:p>
@@ -1132,10 +1114,7 @@
               <a:pPr>
                 <a:defRPr sz="1000" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                   <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="65000"/>
-                      <a:lumOff val="35000"/>
-                    </a:schemeClr>
+                    <a:sysClr val="windowText" lastClr="000000"/>
                   </a:solidFill>
                   <a:latin typeface="+mn-lt"/>
                   <a:ea typeface="+mn-ea"/>
@@ -1164,10 +1143,7 @@
             <a:pPr>
               <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
+                  <a:sysClr val="windowText" lastClr="000000"/>
                 </a:solidFill>
                 <a:latin typeface="+mn-lt"/>
                 <a:ea typeface="+mn-ea"/>
@@ -1206,10 +1182,7 @@
           <a:pPr>
             <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
               <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
+                <a:sysClr val="windowText" lastClr="000000"/>
               </a:solidFill>
               <a:latin typeface="+mn-lt"/>
               <a:ea typeface="+mn-ea"/>
@@ -3327,10 +3300,7 @@
             <a:pPr>
               <a:defRPr sz="1400" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
                 <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
+                  <a:sysClr val="windowText" lastClr="000000"/>
                 </a:solidFill>
                 <a:latin typeface="+mn-lt"/>
                 <a:ea typeface="+mn-ea"/>
@@ -3338,7 +3308,11 @@
               </a:defRPr>
             </a:pPr>
             <a:r>
-              <a:rPr lang="en-US"/>
+              <a:rPr lang="en-US">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+              </a:rPr>
               <a:t>ACCEPT and BID </a:t>
             </a:r>
           </a:p>
@@ -3359,10 +3333,7 @@
           <a:pPr>
             <a:defRPr sz="1400" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
               <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
+                <a:sysClr val="windowText" lastClr="000000"/>
               </a:solidFill>
               <a:latin typeface="+mn-lt"/>
               <a:ea typeface="+mn-ea"/>
@@ -3419,6 +3390,153 @@
               <a:effectLst/>
             </c:spPr>
           </c:marker>
+          <c:dLbls>
+            <c:dLbl>
+              <c:idx val="0"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="7.6939523088365019E-3"/>
+                  <c:y val="3.9308125040013284E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:dLblPos val="r"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000002-3B41-4043-8211-6FC2FCB354D4}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="1"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="1.6012721732954521E-2"/>
+                  <c:y val="-3.8769356765732607E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:dLblPos val="r"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000000-3B41-4043-8211-6FC2FCB354D4}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="2"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="2.1281584781566158E-2"/>
+                  <c:y val="-3.9249361565780752E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:dLblPos val="r"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000003-3B41-4043-8211-6FC2FCB354D4}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="3"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="1.6752373957323066E-2"/>
+                  <c:y val="-4.3177235896070303E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:dLblPos val="r"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000001-3B41-4043-8211-6FC2FCB354D4}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1">
+                  <a:alpha val="30000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:sysClr val="windowText" lastClr="000000"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="t"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
           <c:cat>
             <c:numRef>
               <c:f>CAPs!$A$12:$A$15</c:f>
@@ -3503,8 +3621,8 @@
               <c:idx val="0"/>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="-4.793097387528953E-2"/>
-                  <c:y val="-4.8651609891958367E-2"/>
+                  <c:x val="-9.4327056453403241E-3"/>
+                  <c:y val="-4.0795768782430235E-2"/>
                 </c:manualLayout>
               </c:layout>
               <c:dLblPos val="r"/>
@@ -3525,8 +3643,8 @@
               <c:idx val="1"/>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="-4.5507522710750876E-2"/>
-                  <c:y val="-2.6184092702980898E-2"/>
+                  <c:x val="-5.6830540290272485E-2"/>
+                  <c:y val="-3.0111950604042124E-2"/>
                 </c:manualLayout>
               </c:layout>
               <c:dLblPos val="r"/>
@@ -3569,8 +3687,8 @@
               <c:idx val="3"/>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="-4.3127422150565163E-2"/>
-                  <c:y val="-4.1162437495632545E-2"/>
+                  <c:x val="-5.8979597331759878E-2"/>
+                  <c:y val="-3.7234702243929656E-2"/>
                 </c:manualLayout>
               </c:layout>
               <c:dLblPos val="r"/>
@@ -3605,10 +3723,7 @@
                 <a:pPr>
                   <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="75000"/>
-                        <a:lumOff val="25000"/>
-                      </a:schemeClr>
+                      <a:sysClr val="windowText" lastClr="000000"/>
                     </a:solidFill>
                     <a:latin typeface="+mn-lt"/>
                     <a:ea typeface="+mn-ea"/>
@@ -3731,8 +3846,8 @@
               <c:idx val="0"/>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="-9.3152179397694643E-2"/>
-                  <c:y val="-2.0567213405736529E-2"/>
+                  <c:x val="-0.10447516343050989"/>
+                  <c:y val="-3.2350838972307248E-2"/>
                 </c:manualLayout>
               </c:layout>
               <c:dLblPos val="r"/>
@@ -3746,6 +3861,50 @@
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{00000003-9388-45C4-81C9-401E4B715D21}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="2"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-7.1069023924753755E-2"/>
+                  <c:y val="-5.2996921721794536E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:dLblPos val="r"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000006-3B41-4043-8211-6FC2FCB354D4}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="3"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-0.11183192134294311"/>
+                  <c:y val="-1.9345554280285071E-3"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:dLblPos val="r"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000005-3B41-4043-8211-6FC2FCB354D4}"/>
                 </c:ext>
               </c:extLst>
             </c:dLbl>
@@ -3767,10 +3926,7 @@
                 <a:pPr>
                   <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="75000"/>
-                        <a:lumOff val="25000"/>
-                      </a:schemeClr>
+                      <a:sysClr val="windowText" lastClr="000000"/>
                     </a:solidFill>
                     <a:latin typeface="+mn-lt"/>
                     <a:ea typeface="+mn-ea"/>
@@ -3872,8 +4028,8 @@
               <c:idx val="0"/>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="-7.1467654883632464E-2"/>
-                  <c:y val="7.4891723963258234E-3"/>
+                  <c:x val="-0.10317221289929944"/>
+                  <c:y val="2.3200747471392238E-2"/>
                 </c:manualLayout>
               </c:layout>
               <c:dLblPos val="r"/>
@@ -3894,8 +4050,8 @@
               <c:idx val="1"/>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="-2.3822551627877488E-3"/>
-                  <c:y val="1.1233758594488599E-2"/>
+                  <c:x val="2.1469172568459351E-3"/>
+                  <c:y val="1.9089469245207914E-2"/>
                 </c:manualLayout>
               </c:layout>
               <c:dLblPos val="r"/>
@@ -3916,8 +4072,8 @@
               <c:idx val="2"/>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="-8.734834691332685E-17"/>
-                  <c:y val="1.1233758594488736E-2"/>
+                  <c:x val="9.058421648486522E-3"/>
+                  <c:y val="2.3017343575497611E-2"/>
                 </c:manualLayout>
               </c:layout>
               <c:dLblPos val="r"/>
@@ -3931,6 +4087,28 @@
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{00000002-9388-45C4-81C9-401E4B715D21}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="3"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="0"/>
+                  <c:y val="1.5711497321158636E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:dLblPos val="r"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000004-3B41-4043-8211-6FC2FCB354D4}"/>
                 </c:ext>
               </c:extLst>
             </c:dLbl>
@@ -3954,10 +4132,7 @@
                 <a:pPr>
                   <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="75000"/>
-                        <a:lumOff val="25000"/>
-                      </a:schemeClr>
+                      <a:sysClr val="windowText" lastClr="000000"/>
                     </a:solidFill>
                     <a:latin typeface="+mn-lt"/>
                     <a:ea typeface="+mn-ea"/>
@@ -4052,10 +4227,7 @@
                 <a:pPr>
                   <a:defRPr sz="1000" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="65000"/>
-                        <a:lumOff val="35000"/>
-                      </a:schemeClr>
+                      <a:sysClr val="windowText" lastClr="000000"/>
                     </a:solidFill>
                     <a:latin typeface="+mn-lt"/>
                     <a:ea typeface="+mn-ea"/>
@@ -4063,7 +4235,11 @@
                   </a:defRPr>
                 </a:pPr>
                 <a:r>
-                  <a:rPr lang="en-US"/>
+                  <a:rPr lang="en-US">
+                    <a:solidFill>
+                      <a:sysClr val="windowText" lastClr="000000"/>
+                    </a:solidFill>
+                  </a:rPr>
                   <a:t>Number of Capabilities</a:t>
                 </a:r>
               </a:p>
@@ -4092,10 +4268,7 @@
               <a:pPr>
                 <a:defRPr sz="1000" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                   <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="65000"/>
-                      <a:lumOff val="35000"/>
-                    </a:schemeClr>
+                    <a:sysClr val="windowText" lastClr="000000"/>
                   </a:solidFill>
                   <a:latin typeface="+mn-lt"/>
                   <a:ea typeface="+mn-ea"/>
@@ -4128,12 +4301,9 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="1200" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="1000" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
+                  <a:sysClr val="windowText" lastClr="000000"/>
                 </a:solidFill>
                 <a:latin typeface="+mn-lt"/>
                 <a:ea typeface="+mn-ea"/>
@@ -4180,10 +4350,7 @@
                 <a:pPr>
                   <a:defRPr sz="1000" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="65000"/>
-                        <a:lumOff val="35000"/>
-                      </a:schemeClr>
+                      <a:sysClr val="windowText" lastClr="000000"/>
                     </a:solidFill>
                     <a:latin typeface="+mn-lt"/>
                     <a:ea typeface="+mn-ea"/>
@@ -4191,7 +4358,11 @@
                   </a:defRPr>
                 </a:pPr>
                 <a:r>
-                  <a:rPr lang="en-US"/>
+                  <a:rPr lang="en-US">
+                    <a:solidFill>
+                      <a:sysClr val="windowText" lastClr="000000"/>
+                    </a:solidFill>
+                  </a:rPr>
                   <a:t>Latency  in milliseconds</a:t>
                 </a:r>
               </a:p>
@@ -4212,10 +4383,7 @@
               <a:pPr>
                 <a:defRPr sz="1000" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                   <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="65000"/>
-                      <a:lumOff val="35000"/>
-                    </a:schemeClr>
+                    <a:sysClr val="windowText" lastClr="000000"/>
                   </a:solidFill>
                   <a:latin typeface="+mn-lt"/>
                   <a:ea typeface="+mn-ea"/>
@@ -4244,10 +4412,7 @@
             <a:pPr>
               <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
+                  <a:sysClr val="windowText" lastClr="000000"/>
                 </a:solidFill>
                 <a:latin typeface="+mn-lt"/>
                 <a:ea typeface="+mn-ea"/>
@@ -4286,10 +4451,7 @@
           <a:pPr>
             <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
               <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
+                <a:sysClr val="windowText" lastClr="000000"/>
               </a:solidFill>
               <a:latin typeface="+mn-lt"/>
               <a:ea typeface="+mn-ea"/>
@@ -5407,10 +5569,7 @@
             <a:pPr>
               <a:defRPr sz="1400" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
                 <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
+                  <a:sysClr val="windowText" lastClr="000000"/>
                 </a:solidFill>
                 <a:latin typeface="+mn-lt"/>
                 <a:ea typeface="+mn-ea"/>
@@ -5418,7 +5577,11 @@
               </a:defRPr>
             </a:pPr>
             <a:r>
-              <a:rPr lang="en-US"/>
+              <a:rPr lang="en-US">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+              </a:rPr>
               <a:t>1000+ Transactions</a:t>
             </a:r>
           </a:p>
@@ -5439,10 +5602,7 @@
           <a:pPr>
             <a:defRPr sz="1400" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
               <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
+                <a:sysClr val="windowText" lastClr="000000"/>
               </a:solidFill>
               <a:latin typeface="+mn-lt"/>
               <a:ea typeface="+mn-ea"/>
@@ -5501,10 +5661,7 @@
                 <a:pPr>
                   <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="75000"/>
-                        <a:lumOff val="25000"/>
-                      </a:schemeClr>
+                      <a:sysClr val="windowText" lastClr="000000"/>
                     </a:solidFill>
                     <a:latin typeface="+mn-lt"/>
                     <a:ea typeface="+mn-ea"/>
@@ -5630,10 +5787,7 @@
                 <a:pPr>
                   <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="75000"/>
-                        <a:lumOff val="25000"/>
-                      </a:schemeClr>
+                      <a:sysClr val="windowText" lastClr="000000"/>
                     </a:solidFill>
                     <a:latin typeface="+mn-lt"/>
                     <a:ea typeface="+mn-ea"/>
@@ -5745,12 +5899,9 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr sz="1200" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:defRPr sz="1100" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="65000"/>
-                        <a:lumOff val="35000"/>
-                      </a:schemeClr>
+                      <a:sysClr val="windowText" lastClr="000000"/>
                     </a:solidFill>
                     <a:latin typeface="+mn-lt"/>
                     <a:ea typeface="+mn-ea"/>
@@ -5758,7 +5909,11 @@
                   </a:defRPr>
                 </a:pPr>
                 <a:r>
-                  <a:rPr lang="en-US" sz="1200"/>
+                  <a:rPr lang="en-US" sz="1100">
+                    <a:solidFill>
+                      <a:sysClr val="windowText" lastClr="000000"/>
+                    </a:solidFill>
+                  </a:rPr>
                   <a:t>Transaction types</a:t>
                 </a:r>
               </a:p>
@@ -5777,12 +5932,9 @@
             <a:lstStyle/>
             <a:p>
               <a:pPr>
-                <a:defRPr sz="1200" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:defRPr sz="1100" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                   <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="65000"/>
-                      <a:lumOff val="35000"/>
-                    </a:schemeClr>
+                    <a:sysClr val="windowText" lastClr="000000"/>
                   </a:solidFill>
                   <a:latin typeface="+mn-lt"/>
                   <a:ea typeface="+mn-ea"/>
@@ -5817,10 +5969,7 @@
             <a:pPr>
               <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
+                  <a:sysClr val="windowText" lastClr="000000"/>
                 </a:solidFill>
                 <a:latin typeface="+mn-lt"/>
                 <a:ea typeface="+mn-ea"/>
@@ -5841,6 +5990,7 @@
         <c:axId val="855778223"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:min val="0"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
@@ -5865,12 +6015,9 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr sz="1200" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:defRPr sz="1000" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="65000"/>
-                        <a:lumOff val="35000"/>
-                      </a:schemeClr>
+                      <a:sysClr val="windowText" lastClr="000000"/>
                     </a:solidFill>
                     <a:latin typeface="+mn-lt"/>
                     <a:ea typeface="+mn-ea"/>
@@ -5878,11 +6025,19 @@
                   </a:defRPr>
                 </a:pPr>
                 <a:r>
-                  <a:rPr lang="en-US" sz="1200"/>
+                  <a:rPr lang="en-US" sz="1000">
+                    <a:solidFill>
+                      <a:sysClr val="windowText" lastClr="000000"/>
+                    </a:solidFill>
+                  </a:rPr>
                   <a:t>Latency in </a:t>
                 </a:r>
                 <a:r>
-                  <a:rPr lang="en-US" sz="1200" i="1"/>
+                  <a:rPr lang="en-US" sz="1000" i="1">
+                    <a:solidFill>
+                      <a:sysClr val="windowText" lastClr="000000"/>
+                    </a:solidFill>
+                  </a:rPr>
                   <a:t>ms</a:t>
                 </a:r>
               </a:p>
@@ -5901,12 +6056,9 @@
             <a:lstStyle/>
             <a:p>
               <a:pPr>
-                <a:defRPr sz="1200" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:defRPr sz="1000" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                   <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="65000"/>
-                      <a:lumOff val="35000"/>
-                    </a:schemeClr>
+                    <a:sysClr val="windowText" lastClr="000000"/>
                   </a:solidFill>
                   <a:latin typeface="+mn-lt"/>
                   <a:ea typeface="+mn-ea"/>
@@ -5917,7 +6069,7 @@
             </a:p>
           </c:txPr>
         </c:title>
-        <c:numFmt formatCode="0.00" sourceLinked="1"/>
+        <c:numFmt formatCode="0" sourceLinked="0"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -5935,10 +6087,7 @@
             <a:pPr>
               <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
+                  <a:sysClr val="windowText" lastClr="000000"/>
                 </a:solidFill>
                 <a:latin typeface="+mn-lt"/>
                 <a:ea typeface="+mn-ea"/>
@@ -5962,11 +6111,26 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.70720718754954948"/>
+          <c:y val="0.19126173097771851"/>
+          <c:w val="0.20843212078554493"/>
+          <c:h val="8.1783036108496063E-2"/>
+        </c:manualLayout>
+      </c:layout>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
         <a:ln>
-          <a:noFill/>
+          <a:solidFill>
+            <a:schemeClr val="tx1">
+              <a:lumMod val="50000"/>
+              <a:lumOff val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
         </a:ln>
         <a:effectLst/>
       </c:spPr>
@@ -5977,10 +6141,7 @@
           <a:pPr>
             <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
               <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
+                <a:sysClr val="windowText" lastClr="000000"/>
               </a:solidFill>
               <a:latin typeface="+mn-lt"/>
               <a:ea typeface="+mn-ea"/>
@@ -6058,10 +6219,7 @@
             <a:pPr>
               <a:defRPr sz="1400" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
                 <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
+                  <a:sysClr val="windowText" lastClr="000000"/>
                 </a:solidFill>
                 <a:latin typeface="+mn-lt"/>
                 <a:ea typeface="+mn-ea"/>
@@ -6069,7 +6227,11 @@
               </a:defRPr>
             </a:pPr>
             <a:r>
-              <a:rPr lang="en-US"/>
+              <a:rPr lang="en-US">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+              </a:rPr>
               <a:t>5000+ Transactions</a:t>
             </a:r>
           </a:p>
@@ -6090,10 +6252,7 @@
           <a:pPr>
             <a:defRPr sz="1400" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
               <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
+                <a:sysClr val="windowText" lastClr="000000"/>
               </a:solidFill>
               <a:latin typeface="+mn-lt"/>
               <a:ea typeface="+mn-ea"/>
@@ -6136,6 +6295,28 @@
           </c:spPr>
           <c:invertIfNegative val="0"/>
           <c:dLbls>
+            <c:dLbl>
+              <c:idx val="1"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-1.0637208578699422E-2"/>
+                  <c:y val="-8.9144775974306717E-17"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:dLblPos val="outEnd"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000000-147D-4DF2-9CAE-FBC31B1C013F}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
             <c:spPr>
               <a:noFill/>
               <a:ln>
@@ -6152,10 +6333,7 @@
                 <a:pPr>
                   <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="75000"/>
-                        <a:lumOff val="25000"/>
-                      </a:schemeClr>
+                      <a:sysClr val="windowText" lastClr="000000"/>
                     </a:solidFill>
                     <a:latin typeface="+mn-lt"/>
                     <a:ea typeface="+mn-ea"/>
@@ -6281,10 +6459,7 @@
                 <a:pPr>
                   <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="75000"/>
-                        <a:lumOff val="25000"/>
-                      </a:schemeClr>
+                      <a:sysClr val="windowText" lastClr="000000"/>
                     </a:solidFill>
                     <a:latin typeface="+mn-lt"/>
                     <a:ea typeface="+mn-ea"/>
@@ -6396,12 +6571,9 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr sz="1200" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:defRPr sz="1050" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="65000"/>
-                        <a:lumOff val="35000"/>
-                      </a:schemeClr>
+                      <a:sysClr val="windowText" lastClr="000000"/>
                     </a:solidFill>
                     <a:latin typeface="+mn-lt"/>
                     <a:ea typeface="+mn-ea"/>
@@ -6409,7 +6581,11 @@
                   </a:defRPr>
                 </a:pPr>
                 <a:r>
-                  <a:rPr lang="en-US" sz="1200"/>
+                  <a:rPr lang="en-US" sz="1050">
+                    <a:solidFill>
+                      <a:sysClr val="windowText" lastClr="000000"/>
+                    </a:solidFill>
+                  </a:rPr>
                   <a:t>Transaction types</a:t>
                 </a:r>
               </a:p>
@@ -6428,12 +6604,9 @@
             <a:lstStyle/>
             <a:p>
               <a:pPr>
-                <a:defRPr sz="1200" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:defRPr sz="1050" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                   <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="65000"/>
-                      <a:lumOff val="35000"/>
-                    </a:schemeClr>
+                    <a:sysClr val="windowText" lastClr="000000"/>
                   </a:solidFill>
                   <a:latin typeface="+mn-lt"/>
                   <a:ea typeface="+mn-ea"/>
@@ -6468,10 +6641,7 @@
             <a:pPr>
               <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
+                  <a:sysClr val="windowText" lastClr="000000"/>
                 </a:solidFill>
                 <a:latin typeface="+mn-lt"/>
                 <a:ea typeface="+mn-ea"/>
@@ -6516,12 +6686,9 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr sz="1200" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:defRPr sz="1000" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="65000"/>
-                        <a:lumOff val="35000"/>
-                      </a:schemeClr>
+                      <a:sysClr val="windowText" lastClr="000000"/>
                     </a:solidFill>
                     <a:latin typeface="+mn-lt"/>
                     <a:ea typeface="+mn-ea"/>
@@ -6529,16 +6696,32 @@
                   </a:defRPr>
                 </a:pPr>
                 <a:r>
-                  <a:rPr lang="en-US" sz="1200"/>
+                  <a:rPr lang="en-US" sz="1000">
+                    <a:solidFill>
+                      <a:sysClr val="windowText" lastClr="000000"/>
+                    </a:solidFill>
+                  </a:rPr>
                   <a:t>Latency in </a:t>
                 </a:r>
                 <a:r>
-                  <a:rPr lang="en-US" sz="1200" i="1"/>
+                  <a:rPr lang="en-US" sz="1000" i="1">
+                    <a:solidFill>
+                      <a:sysClr val="windowText" lastClr="000000"/>
+                    </a:solidFill>
+                  </a:rPr>
                   <a:t>ms</a:t>
                 </a:r>
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout>
+            <c:manualLayout>
+              <c:xMode val="edge"/>
+              <c:yMode val="edge"/>
+              <c:x val="0.45114753192808005"/>
+              <c:y val="0.7501417546882142"/>
+            </c:manualLayout>
+          </c:layout>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -6552,12 +6735,9 @@
             <a:lstStyle/>
             <a:p>
               <a:pPr>
-                <a:defRPr sz="1200" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:defRPr sz="1000" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                   <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="65000"/>
-                      <a:lumOff val="35000"/>
-                    </a:schemeClr>
+                    <a:sysClr val="windowText" lastClr="000000"/>
                   </a:solidFill>
                   <a:latin typeface="+mn-lt"/>
                   <a:ea typeface="+mn-ea"/>
@@ -6568,7 +6748,7 @@
             </a:p>
           </c:txPr>
         </c:title>
-        <c:numFmt formatCode="0.00" sourceLinked="1"/>
+        <c:numFmt formatCode="0" sourceLinked="0"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -6588,10 +6768,7 @@
             <a:pPr>
               <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
+                  <a:sysClr val="windowText" lastClr="000000"/>
                 </a:solidFill>
                 <a:latin typeface="+mn-lt"/>
                 <a:ea typeface="+mn-ea"/>
@@ -6617,11 +6794,26 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.70331643600668459"/>
+          <c:y val="0.19562987001333737"/>
+          <c:w val="0.20986442034818384"/>
+          <c:h val="8.1831688215288426E-2"/>
+        </c:manualLayout>
+      </c:layout>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
         <a:ln>
-          <a:noFill/>
+          <a:solidFill>
+            <a:schemeClr val="tx1">
+              <a:lumMod val="50000"/>
+              <a:lumOff val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
         </a:ln>
         <a:effectLst/>
       </c:spPr>
@@ -6632,10 +6824,7 @@
           <a:pPr>
             <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
               <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
+                <a:sysClr val="windowText" lastClr="000000"/>
               </a:solidFill>
               <a:latin typeface="+mn-lt"/>
               <a:ea typeface="+mn-ea"/>
@@ -11309,16 +11498,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>188810</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>127617</xdr:rowOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>251758</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>71295</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>18</xdr:col>
-      <xdr:colOff>492145</xdr:colOff>
-      <xdr:row>20</xdr:row>
-      <xdr:rowOff>13317</xdr:rowOff>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>555093</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>139213</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -11613,8 +11802,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F15"/>
   <sheetViews>
-    <sheetView zoomScale="113" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F17" sqref="F17"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="R35" sqref="R35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
@@ -11860,8 +12049,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{57E4E959-0883-4ECC-862F-8D76850309AF}">
   <dimension ref="A1:F15"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="F21" sqref="A1:XFD1048576"/>
+    <sheetView topLeftCell="C4" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="O29" sqref="O29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
@@ -11870,20 +12059,20 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.55000000000000004">
-      <c r="A1" s="17" t="s">
+      <c r="A1" s="22" t="s">
         <v>3</v>
       </c>
-      <c r="B1" s="17"/>
+      <c r="B1" s="22"/>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" s="7"/>
-      <c r="B2" s="18" t="s">
+      <c r="B2" s="17" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="19"/>
-      <c r="D2" s="19"/>
-      <c r="E2" s="19"/>
-      <c r="F2" s="20"/>
+      <c r="C2" s="18"/>
+      <c r="D2" s="18"/>
+      <c r="E2" s="18"/>
+      <c r="F2" s="19"/>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" s="8" t="s">
@@ -11962,20 +12151,20 @@
       <c r="B8" s="1"/>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.55000000000000004">
-      <c r="A9" s="21" t="s">
+      <c r="A9" s="20" t="s">
         <v>4</v>
       </c>
-      <c r="B9" s="22"/>
+      <c r="B9" s="21"/>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A10" s="7"/>
-      <c r="B10" s="18" t="s">
+      <c r="B10" s="17" t="s">
         <v>1</v>
       </c>
-      <c r="C10" s="19"/>
-      <c r="D10" s="19"/>
-      <c r="E10" s="19"/>
-      <c r="F10" s="20"/>
+      <c r="C10" s="18"/>
+      <c r="D10" s="18"/>
+      <c r="E10" s="18"/>
+      <c r="F10" s="19"/>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A11" s="8" t="s">
@@ -12077,20 +12266,20 @@
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.55000000000000004">
-      <c r="A1" s="17" t="s">
+      <c r="A1" s="22" t="s">
         <v>3</v>
       </c>
-      <c r="B1" s="17"/>
+      <c r="B1" s="22"/>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" s="7"/>
-      <c r="B2" s="18" t="s">
+      <c r="B2" s="17" t="s">
         <v>9</v>
       </c>
-      <c r="C2" s="19"/>
-      <c r="D2" s="19"/>
-      <c r="E2" s="19"/>
-      <c r="F2" s="20"/>
+      <c r="C2" s="18"/>
+      <c r="D2" s="18"/>
+      <c r="E2" s="18"/>
+      <c r="F2" s="19"/>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" s="8" t="s">
@@ -12157,20 +12346,20 @@
       <c r="B8" s="1"/>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.55000000000000004">
-      <c r="A9" s="21" t="s">
+      <c r="A9" s="20" t="s">
         <v>4</v>
       </c>
-      <c r="B9" s="22"/>
+      <c r="B9" s="21"/>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A10" s="7"/>
-      <c r="B10" s="18" t="s">
+      <c r="B10" s="17" t="s">
         <v>9</v>
       </c>
-      <c r="C10" s="19"/>
-      <c r="D10" s="19"/>
-      <c r="E10" s="19"/>
-      <c r="F10" s="20"/>
+      <c r="C10" s="18"/>
+      <c r="D10" s="18"/>
+      <c r="E10" s="18"/>
+      <c r="F10" s="19"/>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A11" s="8" t="s">

--- a/analysis_line_chart(AutoRecovered).xlsx
+++ b/analysis_line_chart(AutoRecovered).xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\vodel\VODELYA\PhD\SmartChainDB\smartchaindb-experiments\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nodir\OneDrive\Desktop\final_experiments\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0641B487-4988-497F-A688-3A635C9537ED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7623DF0D-883A-4732-B668-12FAD7EC4CC4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="9636" yWindow="954" windowWidth="11154" windowHeight="10542" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2805" yWindow="1620" windowWidth="21600" windowHeight="11295" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="CAPs" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="17">
   <si>
     <t>Capabilities</t>
   </si>
@@ -66,6 +66,18 @@
   </si>
   <si>
     <t>SCDB</t>
+  </si>
+  <si>
+    <t>Labels</t>
+  </si>
+  <si>
+    <t>20-25</t>
+  </si>
+  <si>
+    <t>100-25</t>
+  </si>
+  <si>
+    <t>200-25</t>
   </si>
 </sst>
 </file>
@@ -198,7 +210,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -221,6 +233,9 @@
     <xf numFmtId="2" fontId="0" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -236,9 +251,6 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -252,6 +264,9 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -5465,7 +5480,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>'tx-num'!$A$4</c:f>
+              <c:f>'tx-num'!$B$20</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -5544,7 +5559,7 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>'tx-num'!$B$3:$E$3</c:f>
+              <c:f>'tx-num'!$C$3:$F$3</c:f>
               <c:strCache>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
@@ -5564,7 +5579,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'tx-num'!$B$4:$E$4</c:f>
+              <c:f>'tx-num'!$C$4:$F$4</c:f>
               <c:numCache>
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="4"/>
@@ -5594,7 +5609,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>'tx-num'!$A$12</c:f>
+              <c:f>'tx-num'!$B$19</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -5673,7 +5688,7 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>'tx-num'!$B$3:$E$3</c:f>
+              <c:f>'tx-num'!$C$3:$F$3</c:f>
               <c:strCache>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
@@ -5693,7 +5708,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'tx-num'!$C$12:$F$12</c:f>
+              <c:f>'tx-num'!$D$12:$G$12</c:f>
               <c:numCache>
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="4"/>
@@ -6116,7 +6131,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>'tx-num'!$A$5</c:f>
+              <c:f>'tx-num'!$B$20</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -6195,7 +6210,7 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>'tx-num'!$C$11:$F$11</c:f>
+              <c:f>'tx-num'!$D$11:$G$11</c:f>
               <c:strCache>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
@@ -6215,7 +6230,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'tx-num'!$B$5:$E$5</c:f>
+              <c:f>'tx-num'!$C$5:$F$5</c:f>
               <c:numCache>
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="4"/>
@@ -6245,7 +6260,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>'tx-num'!$A$13</c:f>
+              <c:f>'tx-num'!$B$19</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -6324,7 +6339,7 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>'tx-num'!$C$11:$F$11</c:f>
+              <c:f>'tx-num'!$D$11:$G$11</c:f>
               <c:strCache>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
@@ -6344,7 +6359,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'tx-num'!$C$13:$F$13</c:f>
+              <c:f>'tx-num'!$D$13:$G$13</c:f>
               <c:numCache>
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="4"/>
@@ -11273,13 +11288,13 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>6</xdr:col>
+      <xdr:col>7</xdr:col>
       <xdr:colOff>241253</xdr:colOff>
       <xdr:row>5</xdr:row>
       <xdr:rowOff>7797</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>13</xdr:col>
+      <xdr:col>14</xdr:col>
       <xdr:colOff>577430</xdr:colOff>
       <xdr:row>19</xdr:row>
       <xdr:rowOff>77273</xdr:rowOff>
@@ -11309,16 +11324,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>188810</xdr:colOff>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>103085</xdr:colOff>
       <xdr:row>5</xdr:row>
-      <xdr:rowOff>127617</xdr:rowOff>
+      <xdr:rowOff>89517</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>18</xdr:col>
-      <xdr:colOff>492145</xdr:colOff>
-      <xdr:row>20</xdr:row>
-      <xdr:rowOff>13317</xdr:rowOff>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>406420</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>165717</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -11617,28 +11632,28 @@
       <selection activeCell="F17" sqref="F17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="11.15625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="9.578125" style="1" customWidth="1"/>
+    <col min="1" max="1" width="11.140625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="9.5703125" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.55000000000000004">
-      <c r="A1" s="12" t="s">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1" s="13" t="s">
         <v>3</v>
       </c>
-      <c r="B1" s="12"/>
+      <c r="B1" s="13"/>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="2"/>
-      <c r="B2" s="14" t="s">
+      <c r="B2" s="15" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="15"/>
-      <c r="D2" s="15"/>
-      <c r="E2" s="16"/>
+      <c r="C2" s="16"/>
+      <c r="D2" s="16"/>
+      <c r="E2" s="17"/>
     </row>
-    <row r="3" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="3" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>0</v>
       </c>
@@ -11655,7 +11670,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="2">
         <v>15</v>
       </c>
@@ -11672,7 +11687,7 @@
         <v>1243.5999999999999</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="2">
         <v>30</v>
       </c>
@@ -11689,7 +11704,7 @@
         <v>1317.65</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="2">
         <v>45</v>
       </c>
@@ -11706,7 +11721,7 @@
         <v>1378.6</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="2">
         <v>60</v>
       </c>
@@ -11723,27 +11738,27 @@
         <v>1332.3</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" s="3"/>
       <c r="B8" s="3"/>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.55000000000000004">
-      <c r="A9" s="13" t="s">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A9" s="14" t="s">
         <v>4</v>
       </c>
-      <c r="B9" s="13"/>
+      <c r="B9" s="14"/>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" s="4"/>
-      <c r="B10" s="14" t="s">
+      <c r="B10" s="15" t="s">
         <v>1</v>
       </c>
-      <c r="C10" s="15"/>
-      <c r="D10" s="15"/>
-      <c r="E10" s="15"/>
-      <c r="F10" s="16"/>
+      <c r="C10" s="16"/>
+      <c r="D10" s="16"/>
+      <c r="E10" s="16"/>
+      <c r="F10" s="17"/>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
         <v>0</v>
       </c>
@@ -11763,7 +11778,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" s="2">
         <v>15</v>
       </c>
@@ -11783,7 +11798,7 @@
         <v>1313</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" s="2">
         <v>30</v>
       </c>
@@ -11803,7 +11818,7 @@
         <v>1479</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" s="2">
         <v>45</v>
       </c>
@@ -11823,7 +11838,7 @@
         <v>4679</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" s="2">
         <v>60</v>
       </c>
@@ -11858,207 +11873,234 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{57E4E959-0883-4ECC-862F-8D76850309AF}">
-  <dimension ref="A1:F15"/>
+  <dimension ref="B1:G20"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="F21" sqref="A1:XFD1048576"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="Q4" sqref="Q4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="10.578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.55000000000000004">
-      <c r="A1" s="17" t="s">
+    <row r="1" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B1" s="23" t="s">
         <v>3</v>
       </c>
-      <c r="B1" s="17"/>
+      <c r="C1" s="23"/>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.55000000000000004">
-      <c r="A2" s="7"/>
-      <c r="B2" s="18" t="s">
+    <row r="2" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B2" s="7"/>
+      <c r="C2" s="18" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="19"/>
       <c r="D2" s="19"/>
       <c r="E2" s="19"/>
-      <c r="F2" s="20"/>
+      <c r="F2" s="19"/>
+      <c r="G2" s="20"/>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.55000000000000004">
-      <c r="A3" s="8" t="s">
+    <row r="3" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B3" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="B3" s="10" t="s">
+      <c r="C3" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="C3" s="10" t="s">
+      <c r="D3" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="D3" s="10" t="s">
+      <c r="E3" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="E3" s="9" t="s">
+      <c r="F3" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="F3" s="10" t="s">
+      <c r="G3" s="10" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.55000000000000004">
-      <c r="A4" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="B4" s="11">
+    <row r="4" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B4" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="C4" s="11">
         <v>1317.65</v>
       </c>
-      <c r="C4" s="11">
+      <c r="D4" s="11">
         <v>10286.07</v>
       </c>
-      <c r="D4" s="11">
+      <c r="E4" s="11">
         <v>243.3</v>
       </c>
-      <c r="E4" s="11">
+      <c r="F4" s="11">
         <v>217.01400000000001</v>
       </c>
-      <c r="F4" s="8"/>
+      <c r="G4" s="8"/>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.55000000000000004">
-      <c r="A5" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="B5" s="11">
+    <row r="5" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B5" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="C5" s="11">
         <v>1468.95</v>
       </c>
-      <c r="C5" s="11">
+      <c r="D5" s="11">
         <v>10992.1468</v>
       </c>
-      <c r="D5" s="11">
+      <c r="E5" s="11">
         <v>250.29</v>
       </c>
-      <c r="E5" s="11">
+      <c r="F5" s="11">
         <v>231.30840000000001</v>
       </c>
-      <c r="F5" s="8"/>
+      <c r="G5" s="8"/>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.55000000000000004">
-      <c r="A6" s="8"/>
+    <row r="6" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B6" s="8"/>
       <c r="C6" s="8"/>
       <c r="D6" s="8"/>
       <c r="E6" s="8"/>
       <c r="F6" s="8"/>
+      <c r="G6" s="8"/>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.55000000000000004">
-      <c r="A7" s="8"/>
+    <row r="7" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B7" s="8"/>
       <c r="C7" s="8"/>
       <c r="D7" s="8"/>
       <c r="E7" s="8"/>
       <c r="F7" s="8"/>
+      <c r="G7" s="8"/>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.55000000000000004">
-      <c r="A8" s="1"/>
+    <row r="8" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B8" s="1"/>
+      <c r="C8" s="1"/>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.55000000000000004">
-      <c r="A9" s="21" t="s">
+    <row r="9" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B9" s="21" t="s">
         <v>4</v>
       </c>
-      <c r="B9" s="22"/>
+      <c r="C9" s="22"/>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.55000000000000004">
-      <c r="A10" s="7"/>
-      <c r="B10" s="18" t="s">
+    <row r="10" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B10" s="7"/>
+      <c r="C10" s="18" t="s">
         <v>1</v>
       </c>
-      <c r="C10" s="19"/>
       <c r="D10" s="19"/>
       <c r="E10" s="19"/>
-      <c r="F10" s="20"/>
+      <c r="F10" s="19"/>
+      <c r="G10" s="20"/>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.55000000000000004">
-      <c r="A11" s="8" t="s">
+    <row r="11" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B11" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="B11" s="10" t="s">
+      <c r="C11" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="C11" s="10" t="s">
+      <c r="D11" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="D11" s="10" t="s">
+      <c r="E11" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="E11" s="10" t="s">
+      <c r="F11" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="F11" s="9" t="s">
+      <c r="G11" s="9" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.55000000000000004">
-      <c r="A12" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="B12" s="11">
+    <row r="12" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B12" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="C12" s="11">
         <v>1479.89</v>
       </c>
-      <c r="C12" s="11">
+      <c r="D12" s="11">
         <v>1544</v>
       </c>
-      <c r="D12" s="11">
+      <c r="E12" s="11">
         <v>204.69</v>
       </c>
-      <c r="E12" s="11">
+      <c r="F12" s="11">
         <v>588.4</v>
       </c>
-      <c r="F12" s="11">
+      <c r="G12" s="11">
         <v>183.92</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.55000000000000004">
-      <c r="A13" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="B13" s="11">
+    <row r="13" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B13" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="C13" s="11">
         <v>6603.76</v>
       </c>
-      <c r="C13" s="11">
+      <c r="D13" s="11">
         <v>6772</v>
       </c>
-      <c r="D13" s="11">
+      <c r="E13" s="11">
         <v>217.66</v>
       </c>
-      <c r="E13" s="11">
+      <c r="F13" s="11">
         <v>573.75</v>
       </c>
-      <c r="F13" s="11">
+      <c r="G13" s="11">
         <v>79.3</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.55000000000000004">
-      <c r="A14" s="8"/>
-      <c r="B14" s="8"/>
-      <c r="C14" s="8"/>
-      <c r="D14" s="8"/>
-      <c r="E14" s="8"/>
-      <c r="F14" s="8"/>
+    <row r="14" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B14" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="C14" s="8">
+        <v>8082.22</v>
+      </c>
+      <c r="D14" s="8">
+        <v>8278</v>
+      </c>
+      <c r="E14" s="8">
+        <v>583.62</v>
+      </c>
+      <c r="F14" s="8">
+        <v>3132.94</v>
+      </c>
+      <c r="G14" s="8">
+        <v>189.18</v>
+      </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.55000000000000004">
-      <c r="A15" s="8"/>
+    <row r="15" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B15" s="8"/>
       <c r="C15" s="8"/>
       <c r="D15" s="8"/>
       <c r="E15" s="8"/>
       <c r="F15" s="8"/>
+      <c r="G15" s="8"/>
+    </row>
+    <row r="18" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B18" s="12" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="19" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B19" s="8" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="20" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B20" s="8" t="s">
+        <v>11</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="4">
-    <mergeCell ref="B10:F10"/>
-    <mergeCell ref="A9:B9"/>
-    <mergeCell ref="B2:F2"/>
-    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="C10:G10"/>
+    <mergeCell ref="B9:C9"/>
+    <mergeCell ref="C2:G2"/>
+    <mergeCell ref="B1:C1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -12074,15 +12116,15 @@
       <selection activeCell="G18" sqref="A1:G18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.55000000000000004">
-      <c r="A1" s="17" t="s">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1" s="23" t="s">
         <v>3</v>
       </c>
-      <c r="B1" s="17"/>
+      <c r="B1" s="23"/>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="7"/>
       <c r="B2" s="18" t="s">
         <v>9</v>
@@ -12092,7 +12134,7 @@
       <c r="E2" s="19"/>
       <c r="F2" s="20"/>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="8" t="s">
         <v>0</v>
       </c>
@@ -12112,7 +12154,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="8">
         <v>15</v>
       </c>
@@ -12122,7 +12164,7 @@
       <c r="E4" s="8"/>
       <c r="F4" s="8"/>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="8">
         <v>30</v>
       </c>
@@ -12132,7 +12174,7 @@
       <c r="E5" s="8"/>
       <c r="F5" s="8"/>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="8">
         <v>45</v>
       </c>
@@ -12142,7 +12184,7 @@
       <c r="E6" s="8"/>
       <c r="F6" s="8"/>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="8">
         <v>60</v>
       </c>
@@ -12152,17 +12194,17 @@
       <c r="E7" s="8"/>
       <c r="F7" s="8"/>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" s="1"/>
       <c r="B8" s="1"/>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" s="21" t="s">
         <v>4</v>
       </c>
       <c r="B9" s="22"/>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" s="7"/>
       <c r="B10" s="18" t="s">
         <v>9</v>
@@ -12172,7 +12214,7 @@
       <c r="E10" s="19"/>
       <c r="F10" s="20"/>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" s="8" t="s">
         <v>0</v>
       </c>
@@ -12192,7 +12234,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" s="8">
         <v>15</v>
       </c>
@@ -12212,7 +12254,7 @@
         <v>1035</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" s="8">
         <v>30</v>
       </c>
@@ -12232,7 +12274,7 @@
         <v>1035</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" s="8">
         <v>45</v>
       </c>
@@ -12252,7 +12294,7 @@
         <v>1035</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" s="8">
         <v>60</v>
       </c>

--- a/analysis_line_chart(AutoRecovered).xlsx
+++ b/analysis_line_chart(AutoRecovered).xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nodir\OneDrive\Desktop\final_experiments\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\vodel\VODELYA\PhD\SmartChainDB\smartchaindb-experiments\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7623DF0D-883A-4732-B668-12FAD7EC4CC4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C067DF53-A193-4321-AE54-57689722897B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2805" yWindow="1620" windowWidth="21600" windowHeight="11295" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="408" yWindow="1422" windowWidth="17718" windowHeight="10542" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="CAPs" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="17">
   <si>
     <t>Capabilities</t>
   </si>
@@ -5422,10 +5422,7 @@
             <a:pPr>
               <a:defRPr sz="1400" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
                 <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
+                  <a:sysClr val="windowText" lastClr="000000"/>
                 </a:solidFill>
                 <a:latin typeface="+mn-lt"/>
                 <a:ea typeface="+mn-ea"/>
@@ -5433,7 +5430,11 @@
               </a:defRPr>
             </a:pPr>
             <a:r>
-              <a:rPr lang="en-US"/>
+              <a:rPr lang="en-US">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+              </a:rPr>
               <a:t>1000+ Transactions</a:t>
             </a:r>
           </a:p>
@@ -5454,10 +5455,7 @@
           <a:pPr>
             <a:defRPr sz="1400" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
               <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
+                <a:sysClr val="windowText" lastClr="000000"/>
               </a:solidFill>
               <a:latin typeface="+mn-lt"/>
               <a:ea typeface="+mn-ea"/>
@@ -5500,6 +5498,28 @@
           </c:spPr>
           <c:invertIfNegative val="0"/>
           <c:dLbls>
+            <c:dLbl>
+              <c:idx val="1"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-1.0544047410496015E-2"/>
+                  <c:y val="0"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:dLblPos val="outEnd"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000000-3B52-4F2F-92C2-223EF78C5605}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
             <c:spPr>
               <a:noFill/>
               <a:ln>
@@ -5514,12 +5534,9 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:defRPr sz="950" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="75000"/>
-                        <a:lumOff val="25000"/>
-                      </a:schemeClr>
+                      <a:sysClr val="windowText" lastClr="000000"/>
                     </a:solidFill>
                     <a:latin typeface="+mn-lt"/>
                     <a:ea typeface="+mn-ea"/>
@@ -5643,12 +5660,9 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:defRPr sz="950" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="75000"/>
-                        <a:lumOff val="25000"/>
-                      </a:schemeClr>
+                      <a:sysClr val="windowText" lastClr="000000"/>
                     </a:solidFill>
                     <a:latin typeface="+mn-lt"/>
                     <a:ea typeface="+mn-ea"/>
@@ -5760,12 +5774,9 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr sz="1200" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:defRPr sz="1000" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="65000"/>
-                        <a:lumOff val="35000"/>
-                      </a:schemeClr>
+                      <a:sysClr val="windowText" lastClr="000000"/>
                     </a:solidFill>
                     <a:latin typeface="+mn-lt"/>
                     <a:ea typeface="+mn-ea"/>
@@ -5773,7 +5784,11 @@
                   </a:defRPr>
                 </a:pPr>
                 <a:r>
-                  <a:rPr lang="en-US" sz="1200"/>
+                  <a:rPr lang="en-US" sz="1000">
+                    <a:solidFill>
+                      <a:sysClr val="windowText" lastClr="000000"/>
+                    </a:solidFill>
+                  </a:rPr>
                   <a:t>Transaction types</a:t>
                 </a:r>
               </a:p>
@@ -5792,12 +5807,9 @@
             <a:lstStyle/>
             <a:p>
               <a:pPr>
-                <a:defRPr sz="1200" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:defRPr sz="1000" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                   <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="65000"/>
-                      <a:lumOff val="35000"/>
-                    </a:schemeClr>
+                    <a:sysClr val="windowText" lastClr="000000"/>
                   </a:solidFill>
                   <a:latin typeface="+mn-lt"/>
                   <a:ea typeface="+mn-ea"/>
@@ -5830,12 +5842,9 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="950" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
+                  <a:sysClr val="windowText" lastClr="000000"/>
                 </a:solidFill>
                 <a:latin typeface="+mn-lt"/>
                 <a:ea typeface="+mn-ea"/>
@@ -5880,12 +5889,9 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr sz="1200" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:defRPr sz="1000" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="65000"/>
-                        <a:lumOff val="35000"/>
-                      </a:schemeClr>
+                      <a:sysClr val="windowText" lastClr="000000"/>
                     </a:solidFill>
                     <a:latin typeface="+mn-lt"/>
                     <a:ea typeface="+mn-ea"/>
@@ -5893,11 +5899,19 @@
                   </a:defRPr>
                 </a:pPr>
                 <a:r>
-                  <a:rPr lang="en-US" sz="1200"/>
+                  <a:rPr lang="en-US" sz="1000">
+                    <a:solidFill>
+                      <a:sysClr val="windowText" lastClr="000000"/>
+                    </a:solidFill>
+                  </a:rPr>
                   <a:t>Latency in </a:t>
                 </a:r>
                 <a:r>
-                  <a:rPr lang="en-US" sz="1200" i="1"/>
+                  <a:rPr lang="en-US" sz="1000" i="1">
+                    <a:solidFill>
+                      <a:sysClr val="windowText" lastClr="000000"/>
+                    </a:solidFill>
+                  </a:rPr>
                   <a:t>ms</a:t>
                 </a:r>
               </a:p>
@@ -5916,12 +5930,9 @@
             <a:lstStyle/>
             <a:p>
               <a:pPr>
-                <a:defRPr sz="1200" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:defRPr sz="1000" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                   <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="65000"/>
-                      <a:lumOff val="35000"/>
-                    </a:schemeClr>
+                    <a:sysClr val="windowText" lastClr="000000"/>
                   </a:solidFill>
                   <a:latin typeface="+mn-lt"/>
                   <a:ea typeface="+mn-ea"/>
@@ -5932,7 +5943,7 @@
             </a:p>
           </c:txPr>
         </c:title>
-        <c:numFmt formatCode="0.00" sourceLinked="1"/>
+        <c:numFmt formatCode="0" sourceLinked="0"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -5948,12 +5959,9 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="950" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
+                  <a:sysClr val="windowText" lastClr="000000"/>
                 </a:solidFill>
                 <a:latin typeface="+mn-lt"/>
                 <a:ea typeface="+mn-ea"/>
@@ -5977,11 +5985,26 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.70405430145971637"/>
+          <c:y val="0.19802756629507362"/>
+          <c:w val="0.22001625486092452"/>
+          <c:h val="8.4709937229991469E-2"/>
+        </c:manualLayout>
+      </c:layout>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
         <a:ln>
-          <a:noFill/>
+          <a:solidFill>
+            <a:schemeClr val="tx1">
+              <a:lumMod val="50000"/>
+              <a:lumOff val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
         </a:ln>
         <a:effectLst/>
       </c:spPr>
@@ -5990,12 +6013,9 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr>
-            <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+            <a:defRPr sz="950" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
               <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
+                <a:sysClr val="windowText" lastClr="000000"/>
               </a:solidFill>
               <a:latin typeface="+mn-lt"/>
               <a:ea typeface="+mn-ea"/>
@@ -6073,10 +6093,7 @@
             <a:pPr>
               <a:defRPr sz="1400" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
                 <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
+                  <a:sysClr val="windowText" lastClr="000000"/>
                 </a:solidFill>
                 <a:latin typeface="+mn-lt"/>
                 <a:ea typeface="+mn-ea"/>
@@ -6084,7 +6101,11 @@
               </a:defRPr>
             </a:pPr>
             <a:r>
-              <a:rPr lang="en-US"/>
+              <a:rPr lang="en-US">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+              </a:rPr>
               <a:t>5000+ Transactions</a:t>
             </a:r>
           </a:p>
@@ -6105,10 +6126,7 @@
           <a:pPr>
             <a:defRPr sz="1400" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
               <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
+                <a:sysClr val="windowText" lastClr="000000"/>
               </a:solidFill>
               <a:latin typeface="+mn-lt"/>
               <a:ea typeface="+mn-ea"/>
@@ -6151,6 +6169,28 @@
           </c:spPr>
           <c:invertIfNegative val="0"/>
           <c:dLbls>
+            <c:dLbl>
+              <c:idx val="1"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-7.9642216227571883E-3"/>
+                  <c:y val="0"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:dLblPos val="outEnd"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000000-9CFB-4523-826A-386B340B1A14}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
             <c:spPr>
               <a:noFill/>
               <a:ln>
@@ -6165,12 +6205,9 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:defRPr sz="950" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="75000"/>
-                        <a:lumOff val="25000"/>
-                      </a:schemeClr>
+                      <a:sysClr val="windowText" lastClr="000000"/>
                     </a:solidFill>
                     <a:latin typeface="+mn-lt"/>
                     <a:ea typeface="+mn-ea"/>
@@ -6294,12 +6331,9 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:defRPr sz="950" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="75000"/>
-                        <a:lumOff val="25000"/>
-                      </a:schemeClr>
+                      <a:sysClr val="windowText" lastClr="000000"/>
                     </a:solidFill>
                     <a:latin typeface="+mn-lt"/>
                     <a:ea typeface="+mn-ea"/>
@@ -6411,12 +6445,9 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr sz="1200" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:defRPr sz="1000" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="65000"/>
-                        <a:lumOff val="35000"/>
-                      </a:schemeClr>
+                      <a:sysClr val="windowText" lastClr="000000"/>
                     </a:solidFill>
                     <a:latin typeface="+mn-lt"/>
                     <a:ea typeface="+mn-ea"/>
@@ -6424,7 +6455,11 @@
                   </a:defRPr>
                 </a:pPr>
                 <a:r>
-                  <a:rPr lang="en-US" sz="1200"/>
+                  <a:rPr lang="en-US" sz="1000">
+                    <a:solidFill>
+                      <a:sysClr val="windowText" lastClr="000000"/>
+                    </a:solidFill>
+                  </a:rPr>
                   <a:t>Transaction types</a:t>
                 </a:r>
               </a:p>
@@ -6443,12 +6478,9 @@
             <a:lstStyle/>
             <a:p>
               <a:pPr>
-                <a:defRPr sz="1200" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:defRPr sz="1000" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                   <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="65000"/>
-                      <a:lumOff val="35000"/>
-                    </a:schemeClr>
+                    <a:sysClr val="windowText" lastClr="000000"/>
                   </a:solidFill>
                   <a:latin typeface="+mn-lt"/>
                   <a:ea typeface="+mn-ea"/>
@@ -6481,12 +6513,9 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="950" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
+                  <a:sysClr val="windowText" lastClr="000000"/>
                 </a:solidFill>
                 <a:latin typeface="+mn-lt"/>
                 <a:ea typeface="+mn-ea"/>
@@ -6531,12 +6560,9 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr sz="1200" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:defRPr sz="1000" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="65000"/>
-                        <a:lumOff val="35000"/>
-                      </a:schemeClr>
+                      <a:sysClr val="windowText" lastClr="000000"/>
                     </a:solidFill>
                     <a:latin typeface="+mn-lt"/>
                     <a:ea typeface="+mn-ea"/>
@@ -6544,11 +6570,19 @@
                   </a:defRPr>
                 </a:pPr>
                 <a:r>
-                  <a:rPr lang="en-US" sz="1200"/>
+                  <a:rPr lang="en-US" sz="1000">
+                    <a:solidFill>
+                      <a:sysClr val="windowText" lastClr="000000"/>
+                    </a:solidFill>
+                  </a:rPr>
                   <a:t>Latency in </a:t>
                 </a:r>
                 <a:r>
-                  <a:rPr lang="en-US" sz="1200" i="1"/>
+                  <a:rPr lang="en-US" sz="1000" i="1">
+                    <a:solidFill>
+                      <a:sysClr val="windowText" lastClr="000000"/>
+                    </a:solidFill>
+                  </a:rPr>
                   <a:t>ms</a:t>
                 </a:r>
               </a:p>
@@ -6567,12 +6601,9 @@
             <a:lstStyle/>
             <a:p>
               <a:pPr>
-                <a:defRPr sz="1200" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:defRPr sz="1000" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                   <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="65000"/>
-                      <a:lumOff val="35000"/>
-                    </a:schemeClr>
+                    <a:sysClr val="windowText" lastClr="000000"/>
                   </a:solidFill>
                   <a:latin typeface="+mn-lt"/>
                   <a:ea typeface="+mn-ea"/>
@@ -6583,7 +6614,7 @@
             </a:p>
           </c:txPr>
         </c:title>
-        <c:numFmt formatCode="0.00" sourceLinked="1"/>
+        <c:numFmt formatCode="0" sourceLinked="0"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -6601,12 +6632,9 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="950" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
+                  <a:sysClr val="windowText" lastClr="000000"/>
                 </a:solidFill>
                 <a:latin typeface="+mn-lt"/>
                 <a:ea typeface="+mn-ea"/>
@@ -6632,6 +6660,132 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.70014188397903676"/>
+          <c:y val="0.20008038842224019"/>
+          <c:w val="0.22152815803795445"/>
+          <c:h val="8.4493103800027711E-2"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="tx1">
+              <a:lumMod val="50000"/>
+              <a:lumOff val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="950" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr b="1"/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart9.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>10000+ Transactions</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -6645,12 +6799,551 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr>
-            <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+            <a:defRPr sz="1400" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="bar"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'tx-num'!$B$20</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>ETH-SC</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="950" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:sysClr val="windowText" lastClr="000000"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="outEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>'tx-num'!$D$11:$G$11</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>ACCEPT</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>BID</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>RFQ</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>CREATE</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'tx-num'!$C$6:$F$6</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>1644.0550000000001</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>11526.786</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>264.16500000000002</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>246.8314</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-0CE4-4181-849C-F54330BDB390}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'tx-num'!$B$19</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>SCDB</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="950" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:sysClr val="windowText" lastClr="000000"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="outEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>'tx-num'!$D$11:$G$11</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>ACCEPT</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>BID</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>RFQ</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>CREATE</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'tx-num'!$D$14:$G$14</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>8278</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>583.62</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3132.94</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>189.18</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-0CE4-4181-849C-F54330BDB390}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:dLblPos val="outEnd"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="182"/>
+        <c:axId val="855777391"/>
+        <c:axId val="855778223"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="855777391"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:sysClr val="windowText" lastClr="000000"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" sz="1000">
+                    <a:solidFill>
+                      <a:sysClr val="windowText" lastClr="000000"/>
+                    </a:solidFill>
+                  </a:rPr>
+                  <a:t>Transaction types</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:sysClr val="windowText" lastClr="000000"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="950" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="855778223"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="0"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="855778223"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
               <a:solidFill>
                 <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
                 </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:sysClr val="windowText" lastClr="000000"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" sz="1000">
+                    <a:solidFill>
+                      <a:sysClr val="windowText" lastClr="000000"/>
+                    </a:solidFill>
+                  </a:rPr>
+                  <a:t>Latency in </a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" sz="1000" i="1">
+                    <a:solidFill>
+                      <a:sysClr val="windowText" lastClr="000000"/>
+                    </a:solidFill>
+                  </a:rPr>
+                  <a:t>ms</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:sysClr val="windowText" lastClr="000000"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="0" sourceLinked="0"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="950" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="855777391"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+        <c:majorUnit val="2000"/>
+        <c:minorUnit val="200"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.70014188397903676"/>
+          <c:y val="0.20008038842224019"/>
+          <c:w val="0.22152815803795445"/>
+          <c:h val="8.4493103800027711E-2"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="tx1">
+              <a:lumMod val="50000"/>
+              <a:lumOff val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="950" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
               </a:solidFill>
               <a:latin typeface="+mn-lt"/>
               <a:ea typeface="+mn-ea"/>
@@ -7025,6 +7718,46 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors9.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="332">
   <cs:axisTitle>
@@ -10549,6 +11282,511 @@
 </file>
 
 <file path=xl/charts/style8.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="216">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style9.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="216">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -11324,16 +12562,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>103085</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>89517</xdr:rowOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>240245</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>36177</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>20</xdr:col>
-      <xdr:colOff>406420</xdr:colOff>
-      <xdr:row>19</xdr:row>
-      <xdr:rowOff>165717</xdr:rowOff>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>543580</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>112377</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -11355,6 +12593,44 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>219636</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>125506</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>522971</xdr:colOff>
+      <xdr:row>53</xdr:row>
+      <xdr:rowOff>17929</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{290F9344-CF22-42FF-AE4A-FAE0B13BE4B8}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -11628,23 +12904,23 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F15"/>
   <sheetViews>
-    <sheetView zoomScale="113" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScale="40" zoomScaleNormal="40" workbookViewId="0">
       <selection activeCell="F17" sqref="F17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
-    <col min="1" max="1" width="11.140625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="9.5703125" style="1" customWidth="1"/>
+    <col min="1" max="1" width="11.15625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="9.578125" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" s="13" t="s">
         <v>3</v>
       </c>
       <c r="B1" s="13"/>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" s="2"/>
       <c r="B2" s="15" t="s">
         <v>1</v>
@@ -11653,7 +12929,7 @@
       <c r="D2" s="16"/>
       <c r="E2" s="17"/>
     </row>
-    <row r="3" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" s="2" t="s">
         <v>0</v>
       </c>
@@ -11670,7 +12946,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" s="2">
         <v>15</v>
       </c>
@@ -11687,7 +12963,7 @@
         <v>1243.5999999999999</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" s="2">
         <v>30</v>
       </c>
@@ -11704,7 +12980,7 @@
         <v>1317.65</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A6" s="2">
         <v>45</v>
       </c>
@@ -11721,7 +12997,7 @@
         <v>1378.6</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A7" s="2">
         <v>60</v>
       </c>
@@ -11738,17 +13014,17 @@
         <v>1332.3</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A8" s="3"/>
       <c r="B8" s="3"/>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A9" s="14" t="s">
         <v>4</v>
       </c>
       <c r="B9" s="14"/>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A10" s="4"/>
       <c r="B10" s="15" t="s">
         <v>1</v>
@@ -11758,7 +13034,7 @@
       <c r="E10" s="16"/>
       <c r="F10" s="17"/>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A11" s="2" t="s">
         <v>0</v>
       </c>
@@ -11778,7 +13054,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A12" s="2">
         <v>15</v>
       </c>
@@ -11798,7 +13074,7 @@
         <v>1313</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A13" s="2">
         <v>30</v>
       </c>
@@ -11818,7 +13094,7 @@
         <v>1479</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A14" s="2">
         <v>45</v>
       </c>
@@ -11838,7 +13114,7 @@
         <v>4679</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A15" s="2">
         <v>60</v>
       </c>
@@ -11875,22 +13151,22 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{57E4E959-0883-4ECC-862F-8D76850309AF}">
   <dimension ref="B1:G20"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="Q4" sqref="Q4"/>
+    <sheetView tabSelected="1" topLeftCell="D1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="P31" sqref="P31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
-    <col min="3" max="3" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B1" s="23" t="s">
         <v>3</v>
       </c>
       <c r="C1" s="23"/>
     </row>
-    <row r="2" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B2" s="7"/>
       <c r="C2" s="18" t="s">
         <v>1</v>
@@ -11900,7 +13176,7 @@
       <c r="F2" s="19"/>
       <c r="G2" s="20"/>
     </row>
-    <row r="3" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B3" s="8" t="s">
         <v>10</v>
       </c>
@@ -11920,7 +13196,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B4" s="8" t="s">
         <v>14</v>
       </c>
@@ -11938,7 +13214,7 @@
       </c>
       <c r="G4" s="8"/>
     </row>
-    <row r="5" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B5" s="8" t="s">
         <v>15</v>
       </c>
@@ -11956,15 +13232,25 @@
       </c>
       <c r="G5" s="8"/>
     </row>
-    <row r="6" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B6" s="8"/>
-      <c r="C6" s="8"/>
-      <c r="D6" s="8"/>
-      <c r="E6" s="8"/>
-      <c r="F6" s="8"/>
+    <row r="6" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="B6" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="C6" s="8">
+        <v>1644.0550000000001</v>
+      </c>
+      <c r="D6" s="8">
+        <v>11526.786</v>
+      </c>
+      <c r="E6" s="8">
+        <v>264.16500000000002</v>
+      </c>
+      <c r="F6" s="8">
+        <v>246.8314</v>
+      </c>
       <c r="G6" s="8"/>
     </row>
-    <row r="7" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B7" s="8"/>
       <c r="C7" s="8"/>
       <c r="D7" s="8"/>
@@ -11972,17 +13258,17 @@
       <c r="F7" s="8"/>
       <c r="G7" s="8"/>
     </row>
-    <row r="8" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B8" s="1"/>
       <c r="C8" s="1"/>
     </row>
-    <row r="9" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B9" s="21" t="s">
         <v>4</v>
       </c>
       <c r="C9" s="22"/>
     </row>
-    <row r="10" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B10" s="7"/>
       <c r="C10" s="18" t="s">
         <v>1</v>
@@ -11992,7 +13278,7 @@
       <c r="F10" s="19"/>
       <c r="G10" s="20"/>
     </row>
-    <row r="11" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B11" s="8" t="s">
         <v>10</v>
       </c>
@@ -12012,7 +13298,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="12" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B12" s="8" t="s">
         <v>14</v>
       </c>
@@ -12032,7 +13318,7 @@
         <v>183.92</v>
       </c>
     </row>
-    <row r="13" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B13" s="8" t="s">
         <v>15</v>
       </c>
@@ -12052,7 +13338,7 @@
         <v>79.3</v>
       </c>
     </row>
-    <row r="14" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B14" s="8" t="s">
         <v>16</v>
       </c>
@@ -12072,7 +13358,7 @@
         <v>189.18</v>
       </c>
     </row>
-    <row r="15" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B15" s="8"/>
       <c r="C15" s="8"/>
       <c r="D15" s="8"/>
@@ -12080,17 +13366,17 @@
       <c r="F15" s="8"/>
       <c r="G15" s="8"/>
     </row>
-    <row r="18" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:2" x14ac:dyDescent="0.55000000000000004">
       <c r="B18" s="12" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="19" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:2" x14ac:dyDescent="0.55000000000000004">
       <c r="B19" s="8" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="20" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:2" x14ac:dyDescent="0.55000000000000004">
       <c r="B20" s="8" t="s">
         <v>11</v>
       </c>
@@ -12116,15 +13402,15 @@
       <selection activeCell="G18" sqref="A1:G18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" s="23" t="s">
         <v>3</v>
       </c>
       <c r="B1" s="23"/>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" s="7"/>
       <c r="B2" s="18" t="s">
         <v>9</v>
@@ -12134,7 +13420,7 @@
       <c r="E2" s="19"/>
       <c r="F2" s="20"/>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" s="8" t="s">
         <v>0</v>
       </c>
@@ -12154,7 +13440,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" s="8">
         <v>15</v>
       </c>
@@ -12164,7 +13450,7 @@
       <c r="E4" s="8"/>
       <c r="F4" s="8"/>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" s="8">
         <v>30</v>
       </c>
@@ -12174,7 +13460,7 @@
       <c r="E5" s="8"/>
       <c r="F5" s="8"/>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A6" s="8">
         <v>45</v>
       </c>
@@ -12184,7 +13470,7 @@
       <c r="E6" s="8"/>
       <c r="F6" s="8"/>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A7" s="8">
         <v>60</v>
       </c>
@@ -12194,17 +13480,17 @@
       <c r="E7" s="8"/>
       <c r="F7" s="8"/>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A8" s="1"/>
       <c r="B8" s="1"/>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A9" s="21" t="s">
         <v>4</v>
       </c>
       <c r="B9" s="22"/>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A10" s="7"/>
       <c r="B10" s="18" t="s">
         <v>9</v>
@@ -12214,7 +13500,7 @@
       <c r="E10" s="19"/>
       <c r="F10" s="20"/>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A11" s="8" t="s">
         <v>0</v>
       </c>
@@ -12234,7 +13520,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A12" s="8">
         <v>15</v>
       </c>
@@ -12254,7 +13540,7 @@
         <v>1035</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A13" s="8">
         <v>30</v>
       </c>
@@ -12274,7 +13560,7 @@
         <v>1035</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A14" s="8">
         <v>45</v>
       </c>
@@ -12294,7 +13580,7 @@
         <v>1035</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A15" s="8">
         <v>60</v>
       </c>

--- a/analysis_line_chart(AutoRecovered).xlsx
+++ b/analysis_line_chart(AutoRecovered).xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\vodel\VODELYA\PhD\SmartChainDB\smartchaindb-experiments\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nodir\OneDrive\Desktop\final_experiments\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C067DF53-A193-4321-AE54-57689722897B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{16483C44-1292-4BCB-82F3-F45F68EBE503}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="408" yWindow="1422" windowWidth="17718" windowHeight="10542" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3930" yWindow="2415" windowWidth="21330" windowHeight="11295" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="CAPs" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="17">
   <si>
     <t>Capabilities</t>
   </si>
@@ -210,7 +210,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -268,6 +268,19 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -5468,7 +5481,17 @@
     </c:title>
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
-      <c:layout/>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.18960884585381554"/>
+          <c:y val="0.17677589717578379"/>
+          <c:w val="0.75235202330810624"/>
+          <c:h val="0.50852190920000762"/>
+        </c:manualLayout>
+      </c:layout>
       <c:barChart>
         <c:barDir val="bar"/>
         <c:grouping val="clustered"/>
@@ -5722,21 +5745,21 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'tx-num'!$D$12:$G$12</c:f>
+              <c:f>'tx-num'!$C$12:$F$12</c:f>
               <c:numCache>
-                <c:formatCode>0.00</c:formatCode>
+                <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>1544</c:v>
+                  <c:v>274.8</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>204.69</c:v>
+                  <c:v>91.66</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>588.4</c:v>
+                  <c:v>263.95</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>183.92</c:v>
+                  <c:v>75.41</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6247,7 +6270,7 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>'tx-num'!$D$11:$G$11</c:f>
+              <c:f>'tx-num'!$C$11:$F$11</c:f>
               <c:strCache>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
@@ -6373,7 +6396,7 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>'tx-num'!$D$11:$G$11</c:f>
+              <c:f>'tx-num'!$C$11:$F$11</c:f>
               <c:strCache>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
@@ -6393,21 +6416,21 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'tx-num'!$D$13:$G$13</c:f>
+              <c:f>'tx-num'!$C$13:$F$13</c:f>
               <c:numCache>
-                <c:formatCode>0.00</c:formatCode>
+                <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>6772</c:v>
+                  <c:v>344.57</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>217.66</c:v>
+                  <c:v>98.88</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>573.75</c:v>
+                  <c:v>245.47</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>79.3</c:v>
+                  <c:v>81.8</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6900,7 +6923,7 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>'tx-num'!$D$11:$G$11</c:f>
+              <c:f>'tx-num'!$C$11:$F$11</c:f>
               <c:strCache>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
@@ -7026,7 +7049,7 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>'tx-num'!$D$11:$G$11</c:f>
+              <c:f>'tx-num'!$C$11:$F$11</c:f>
               <c:strCache>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
@@ -7046,21 +7069,21 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'tx-num'!$D$14:$G$14</c:f>
+              <c:f>'tx-num'!$C$14:$F$14</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>8278</c:v>
+                  <c:v>386.98</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>583.62</c:v>
+                  <c:v>135.62</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>3132.94</c:v>
+                  <c:v>241.32</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>189.18</c:v>
+                  <c:v>82.2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -12908,19 +12931,19 @@
       <selection activeCell="F17" sqref="F17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="11.15625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="9.578125" style="1" customWidth="1"/>
+    <col min="1" max="1" width="11.140625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="9.5703125" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="13" t="s">
         <v>3</v>
       </c>
       <c r="B1" s="13"/>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="2"/>
       <c r="B2" s="15" t="s">
         <v>1</v>
@@ -12929,7 +12952,7 @@
       <c r="D2" s="16"/>
       <c r="E2" s="17"/>
     </row>
-    <row r="3" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="3" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>0</v>
       </c>
@@ -12946,7 +12969,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="2">
         <v>15</v>
       </c>
@@ -12963,7 +12986,7 @@
         <v>1243.5999999999999</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="2">
         <v>30</v>
       </c>
@@ -12980,7 +13003,7 @@
         <v>1317.65</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="2">
         <v>45</v>
       </c>
@@ -12997,7 +13020,7 @@
         <v>1378.6</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="2">
         <v>60</v>
       </c>
@@ -13014,17 +13037,17 @@
         <v>1332.3</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" s="3"/>
       <c r="B8" s="3"/>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" s="14" t="s">
         <v>4</v>
       </c>
       <c r="B9" s="14"/>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" s="4"/>
       <c r="B10" s="15" t="s">
         <v>1</v>
@@ -13034,7 +13057,7 @@
       <c r="E10" s="16"/>
       <c r="F10" s="17"/>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
         <v>0</v>
       </c>
@@ -13054,7 +13077,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" s="2">
         <v>15</v>
       </c>
@@ -13074,7 +13097,7 @@
         <v>1313</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" s="2">
         <v>30</v>
       </c>
@@ -13094,7 +13117,7 @@
         <v>1479</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" s="2">
         <v>45</v>
       </c>
@@ -13114,7 +13137,7 @@
         <v>4679</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" s="2">
         <v>60</v>
       </c>
@@ -13151,32 +13174,32 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{57E4E959-0883-4ECC-862F-8D76850309AF}">
   <dimension ref="B1:G20"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="P31" sqref="P31"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="S17" sqref="S17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="3" max="3" width="10.578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B1" s="23" t="s">
         <v>3</v>
       </c>
       <c r="C1" s="23"/>
     </row>
-    <row r="2" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B2" s="7"/>
-      <c r="C2" s="18" t="s">
+      <c r="C2" s="25" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="19"/>
-      <c r="E2" s="19"/>
-      <c r="F2" s="19"/>
-      <c r="G2" s="20"/>
+      <c r="D2" s="25"/>
+      <c r="E2" s="25"/>
+      <c r="F2" s="25"/>
+      <c r="G2" s="24"/>
     </row>
-    <row r="3" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="3" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B3" s="8" t="s">
         <v>10</v>
       </c>
@@ -13192,11 +13215,8 @@
       <c r="F3" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="G3" s="10" t="s">
-        <v>8</v>
-      </c>
     </row>
-    <row r="4" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="4" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B4" s="8" t="s">
         <v>14</v>
       </c>
@@ -13212,9 +13232,8 @@
       <c r="F4" s="11">
         <v>217.01400000000001</v>
       </c>
-      <c r="G4" s="8"/>
     </row>
-    <row r="5" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="5" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B5" s="8" t="s">
         <v>15</v>
       </c>
@@ -13230,9 +13249,8 @@
       <c r="F5" s="11">
         <v>231.30840000000001</v>
       </c>
-      <c r="G5" s="8"/>
     </row>
-    <row r="6" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="6" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B6" s="8" t="s">
         <v>16</v>
       </c>
@@ -13248,145 +13266,131 @@
       <c r="F6" s="8">
         <v>246.8314</v>
       </c>
-      <c r="G6" s="8"/>
     </row>
-    <row r="7" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="7" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B7" s="8"/>
       <c r="C7" s="8"/>
       <c r="D7" s="8"/>
       <c r="E7" s="8"/>
       <c r="F7" s="8"/>
-      <c r="G7" s="8"/>
     </row>
-    <row r="8" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="8" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B8" s="1"/>
       <c r="C8" s="1"/>
     </row>
-    <row r="9" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="9" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B9" s="21" t="s">
         <v>4</v>
       </c>
       <c r="C9" s="22"/>
     </row>
-    <row r="10" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="10" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B10" s="7"/>
-      <c r="C10" s="18" t="s">
+      <c r="C10" s="25" t="s">
         <v>1</v>
       </c>
-      <c r="D10" s="19"/>
-      <c r="E10" s="19"/>
-      <c r="F10" s="19"/>
-      <c r="G10" s="20"/>
+      <c r="D10" s="25"/>
+      <c r="E10" s="25"/>
+      <c r="F10" s="18"/>
+      <c r="G10" s="27"/>
     </row>
-    <row r="11" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="11" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B11" s="8" t="s">
         <v>10</v>
       </c>
       <c r="C11" s="10" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D11" s="10" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E11" s="10" t="s">
-        <v>6</v>
-      </c>
-      <c r="F11" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="G11" s="9" t="s">
+      <c r="F11" s="9" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="12" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="12" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B12" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="C12" s="11">
-        <v>1479.89</v>
-      </c>
-      <c r="D12" s="11">
-        <v>1544</v>
-      </c>
-      <c r="E12" s="11">
-        <v>204.69</v>
-      </c>
-      <c r="F12" s="11">
-        <v>588.4</v>
-      </c>
-      <c r="G12" s="11">
-        <v>183.92</v>
+      <c r="C12" s="28">
+        <v>274.8</v>
+      </c>
+      <c r="D12" s="28">
+        <v>91.66</v>
+      </c>
+      <c r="E12" s="28">
+        <v>263.95</v>
+      </c>
+      <c r="F12" s="28">
+        <v>75.41</v>
       </c>
     </row>
-    <row r="13" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="13" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B13" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="C13" s="11">
-        <v>6603.76</v>
-      </c>
-      <c r="D13" s="11">
-        <v>6772</v>
-      </c>
-      <c r="E13" s="11">
-        <v>217.66</v>
-      </c>
-      <c r="F13" s="11">
-        <v>573.75</v>
-      </c>
-      <c r="G13" s="11">
-        <v>79.3</v>
+      <c r="C13" s="28">
+        <v>344.57</v>
+      </c>
+      <c r="D13" s="28">
+        <v>98.88</v>
+      </c>
+      <c r="E13" s="28">
+        <v>245.47</v>
+      </c>
+      <c r="F13" s="28">
+        <v>81.8</v>
       </c>
     </row>
-    <row r="14" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="14" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B14" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="C14" s="8">
-        <v>8082.22</v>
-      </c>
-      <c r="D14" s="8">
-        <v>8278</v>
-      </c>
-      <c r="E14" s="8">
-        <v>583.62</v>
-      </c>
-      <c r="F14" s="8">
-        <v>3132.94</v>
-      </c>
-      <c r="G14" s="8">
-        <v>189.18</v>
+      <c r="C14" s="28">
+        <v>386.98</v>
+      </c>
+      <c r="D14" s="28">
+        <v>135.62</v>
+      </c>
+      <c r="E14" s="28">
+        <v>241.32</v>
+      </c>
+      <c r="F14" s="28">
+        <v>82.2</v>
       </c>
     </row>
-    <row r="15" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="15" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B15" s="8"/>
       <c r="C15" s="8"/>
       <c r="D15" s="8"/>
       <c r="E15" s="8"/>
       <c r="F15" s="8"/>
-      <c r="G15" s="8"/>
+      <c r="G15" s="26"/>
     </row>
-    <row r="18" spans="2:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="18" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B18" s="12" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="19" spans="2:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="19" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B19" s="8" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="20" spans="2:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="20" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B20" s="8" t="s">
         <v>11</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="4">
-    <mergeCell ref="C10:G10"/>
     <mergeCell ref="B9:C9"/>
-    <mergeCell ref="C2:G2"/>
     <mergeCell ref="B1:C1"/>
+    <mergeCell ref="C2:F2"/>
+    <mergeCell ref="C10:F10"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -13402,15 +13406,15 @@
       <selection activeCell="G18" sqref="A1:G18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="23" t="s">
         <v>3</v>
       </c>
       <c r="B1" s="23"/>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="7"/>
       <c r="B2" s="18" t="s">
         <v>9</v>
@@ -13420,7 +13424,7 @@
       <c r="E2" s="19"/>
       <c r="F2" s="20"/>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="8" t="s">
         <v>0</v>
       </c>
@@ -13440,7 +13444,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="8">
         <v>15</v>
       </c>
@@ -13450,7 +13454,7 @@
       <c r="E4" s="8"/>
       <c r="F4" s="8"/>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="8">
         <v>30</v>
       </c>
@@ -13460,7 +13464,7 @@
       <c r="E5" s="8"/>
       <c r="F5" s="8"/>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="8">
         <v>45</v>
       </c>
@@ -13470,7 +13474,7 @@
       <c r="E6" s="8"/>
       <c r="F6" s="8"/>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="8">
         <v>60</v>
       </c>
@@ -13480,17 +13484,17 @@
       <c r="E7" s="8"/>
       <c r="F7" s="8"/>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" s="1"/>
       <c r="B8" s="1"/>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" s="21" t="s">
         <v>4</v>
       </c>
       <c r="B9" s="22"/>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" s="7"/>
       <c r="B10" s="18" t="s">
         <v>9</v>
@@ -13500,7 +13504,7 @@
       <c r="E10" s="19"/>
       <c r="F10" s="20"/>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" s="8" t="s">
         <v>0</v>
       </c>
@@ -13520,7 +13524,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" s="8">
         <v>15</v>
       </c>
@@ -13540,7 +13544,7 @@
         <v>1035</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" s="8">
         <v>30</v>
       </c>
@@ -13560,7 +13564,7 @@
         <v>1035</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" s="8">
         <v>45</v>
       </c>
@@ -13580,7 +13584,7 @@
         <v>1035</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" s="8">
         <v>60</v>
       </c>

--- a/analysis_line_chart(AutoRecovered).xlsx
+++ b/analysis_line_chart(AutoRecovered).xlsx
@@ -1,21 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25831"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nodir\OneDrive\Desktop\final_experiments\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{16483C44-1292-4BCB-82F3-F45F68EBE503}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D4A75532-B58E-4572-9984-C52862FF5DDB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3930" yWindow="2415" windowWidth="21330" windowHeight="11295" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView minimized="1" xWindow="3930" yWindow="2415" windowWidth="21330" windowHeight="11295" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="CAPs" sheetId="1" r:id="rId1"/>
     <sheet name="tx-num" sheetId="3" r:id="rId2"/>
-    <sheet name="tx-size" sheetId="2" r:id="rId3"/>
+    <sheet name="phases" sheetId="4" r:id="rId3"/>
+    <sheet name="tx-size" sheetId="2" r:id="rId4"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -27,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="17">
   <si>
     <t>Capabilities</t>
   </si>
@@ -210,7 +211,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -236,6 +237,16 @@
     <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -251,6 +262,18 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -260,28 +283,11 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -12927,8 +12933,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F15"/>
   <sheetViews>
-    <sheetView zoomScale="40" zoomScaleNormal="40" workbookViewId="0">
-      <selection activeCell="F17" sqref="F17"/>
+    <sheetView zoomScale="93" zoomScaleNormal="40" workbookViewId="0">
+      <selection activeCell="F18" sqref="F18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -12938,19 +12944,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A1" s="13" t="s">
+      <c r="A1" s="17" t="s">
         <v>3</v>
       </c>
-      <c r="B1" s="13"/>
+      <c r="B1" s="17"/>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="2"/>
-      <c r="B2" s="15" t="s">
+      <c r="B2" s="19" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="16"/>
-      <c r="D2" s="16"/>
-      <c r="E2" s="17"/>
+      <c r="C2" s="20"/>
+      <c r="D2" s="20"/>
+      <c r="E2" s="21"/>
     </row>
     <row r="3" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
@@ -13042,20 +13048,20 @@
       <c r="B8" s="3"/>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A9" s="14" t="s">
+      <c r="A9" s="18" t="s">
         <v>4</v>
       </c>
-      <c r="B9" s="14"/>
+      <c r="B9" s="18"/>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" s="4"/>
-      <c r="B10" s="15" t="s">
+      <c r="B10" s="29" t="s">
         <v>1</v>
       </c>
-      <c r="C10" s="16"/>
-      <c r="D10" s="16"/>
-      <c r="E10" s="16"/>
-      <c r="F10" s="17"/>
+      <c r="C10" s="29"/>
+      <c r="D10" s="29"/>
+      <c r="E10" s="29"/>
+      <c r="F10" s="30"/>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
@@ -13073,9 +13079,7 @@
       <c r="E11" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="F11" s="5" t="s">
-        <v>8</v>
-      </c>
+      <c r="F11" s="31"/>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" s="2">
@@ -13093,9 +13097,7 @@
       <c r="E12" s="2">
         <v>1369</v>
       </c>
-      <c r="F12" s="2">
-        <v>1313</v>
-      </c>
+      <c r="F12" s="14"/>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" s="2">
@@ -13113,9 +13115,7 @@
       <c r="E13" s="2">
         <v>1544</v>
       </c>
-      <c r="F13" s="2">
-        <v>1479</v>
-      </c>
+      <c r="F13" s="14"/>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" s="2">
@@ -13133,9 +13133,7 @@
       <c r="E14" s="2">
         <v>2305</v>
       </c>
-      <c r="F14" s="2">
-        <v>4679</v>
-      </c>
+      <c r="F14" s="14"/>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" s="2">
@@ -13153,16 +13151,14 @@
       <c r="E15" s="2">
         <v>2630</v>
       </c>
-      <c r="F15" s="2">
-        <v>2568</v>
-      </c>
+      <c r="F15" s="14"/>
     </row>
   </sheetData>
   <mergeCells count="4">
     <mergeCell ref="A1:B1"/>
     <mergeCell ref="A9:B9"/>
     <mergeCell ref="B2:E2"/>
-    <mergeCell ref="B10:F10"/>
+    <mergeCell ref="B10:E10"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -13174,7 +13170,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{57E4E959-0883-4ECC-862F-8D76850309AF}">
   <dimension ref="B1:G20"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="S17" sqref="S17"/>
     </sheetView>
   </sheetViews>
@@ -13184,10 +13180,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B1" s="23" t="s">
+      <c r="B1" s="24" t="s">
         <v>3</v>
       </c>
-      <c r="C1" s="23"/>
+      <c r="C1" s="24"/>
     </row>
     <row r="2" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B2" s="7"/>
@@ -13197,7 +13193,7 @@
       <c r="D2" s="25"/>
       <c r="E2" s="25"/>
       <c r="F2" s="25"/>
-      <c r="G2" s="24"/>
+      <c r="G2" s="13"/>
     </row>
     <row r="3" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B3" s="8" t="s">
@@ -13279,10 +13275,10 @@
       <c r="C8" s="1"/>
     </row>
     <row r="9" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B9" s="21" t="s">
+      <c r="B9" s="22" t="s">
         <v>4</v>
       </c>
-      <c r="C9" s="22"/>
+      <c r="C9" s="23"/>
     </row>
     <row r="10" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B10" s="7"/>
@@ -13291,8 +13287,8 @@
       </c>
       <c r="D10" s="25"/>
       <c r="E10" s="25"/>
-      <c r="F10" s="18"/>
-      <c r="G10" s="27"/>
+      <c r="F10" s="26"/>
+      <c r="G10" s="15"/>
     </row>
     <row r="11" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B11" s="8" t="s">
@@ -13315,16 +13311,16 @@
       <c r="B12" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="C12" s="28">
+      <c r="C12" s="16">
         <v>274.8</v>
       </c>
-      <c r="D12" s="28">
+      <c r="D12" s="16">
         <v>91.66</v>
       </c>
-      <c r="E12" s="28">
+      <c r="E12" s="16">
         <v>263.95</v>
       </c>
-      <c r="F12" s="28">
+      <c r="F12" s="16">
         <v>75.41</v>
       </c>
     </row>
@@ -13332,16 +13328,16 @@
       <c r="B13" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="C13" s="28">
+      <c r="C13" s="16">
         <v>344.57</v>
       </c>
-      <c r="D13" s="28">
+      <c r="D13" s="16">
         <v>98.88</v>
       </c>
-      <c r="E13" s="28">
+      <c r="E13" s="16">
         <v>245.47</v>
       </c>
-      <c r="F13" s="28">
+      <c r="F13" s="16">
         <v>81.8</v>
       </c>
     </row>
@@ -13349,16 +13345,16 @@
       <c r="B14" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="C14" s="28">
+      <c r="C14" s="16">
         <v>386.98</v>
       </c>
-      <c r="D14" s="28">
+      <c r="D14" s="16">
         <v>135.62</v>
       </c>
-      <c r="E14" s="28">
+      <c r="E14" s="16">
         <v>241.32</v>
       </c>
-      <c r="F14" s="28">
+      <c r="F14" s="16">
         <v>82.2</v>
       </c>
     </row>
@@ -13368,7 +13364,7 @@
       <c r="D15" s="8"/>
       <c r="E15" s="8"/>
       <c r="F15" s="8"/>
-      <c r="G15" s="26"/>
+      <c r="G15" s="14"/>
     </row>
     <row r="18" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B18" s="12" t="s">
@@ -13399,30 +13395,44 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3230EC20-DD9D-463C-912A-268F704B20E9}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B5" sqref="B5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{14C921A4-9E00-44C5-A0A9-067E96B6D414}">
   <dimension ref="A1:F15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G18" sqref="A1:G18"/>
+      <selection activeCell="J18" sqref="J18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A1" s="23" t="s">
+      <c r="A1" s="24" t="s">
         <v>3</v>
       </c>
-      <c r="B1" s="23"/>
+      <c r="B1" s="24"/>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="7"/>
-      <c r="B2" s="18" t="s">
+      <c r="B2" s="26" t="s">
         <v>9</v>
       </c>
-      <c r="C2" s="19"/>
-      <c r="D2" s="19"/>
-      <c r="E2" s="19"/>
-      <c r="F2" s="20"/>
+      <c r="C2" s="27"/>
+      <c r="D2" s="27"/>
+      <c r="E2" s="27"/>
+      <c r="F2" s="28"/>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="8" t="s">
@@ -13489,20 +13499,20 @@
       <c r="B8" s="1"/>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A9" s="21" t="s">
+      <c r="A9" s="22" t="s">
         <v>4</v>
       </c>
-      <c r="B9" s="22"/>
+      <c r="B9" s="23"/>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" s="7"/>
-      <c r="B10" s="18" t="s">
+      <c r="B10" s="26" t="s">
         <v>9</v>
       </c>
-      <c r="C10" s="19"/>
-      <c r="D10" s="19"/>
-      <c r="E10" s="19"/>
-      <c r="F10" s="20"/>
+      <c r="C10" s="27"/>
+      <c r="D10" s="27"/>
+      <c r="E10" s="27"/>
+      <c r="F10" s="28"/>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" s="8" t="s">

--- a/analysis_line_chart(AutoRecovered).xlsx
+++ b/analysis_line_chart(AutoRecovered).xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nodir\OneDrive\Desktop\final_experiments\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\vodel\VODELYA\PhD\SmartChainDB\smartchaindb-experiments\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D4A75532-B58E-4572-9984-C52862FF5DDB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{86207127-D304-404D-8EC9-6C45B9CB1896}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView minimized="1" xWindow="3930" yWindow="2415" windowWidth="21330" windowHeight="11295" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="54" yWindow="24" windowWidth="12528" windowHeight="12318" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="CAPs" sheetId="1" r:id="rId1"/>
@@ -19,6 +19,7 @@
     <sheet name="tx-size" sheetId="2" r:id="rId4"/>
   </sheets>
   <calcPr calcId="181029"/>
+  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -211,7 +212,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="32">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -247,6 +248,7 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -260,6 +262,9 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -283,11 +288,6 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -333,10 +333,7 @@
             <a:pPr>
               <a:defRPr sz="1400" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
                 <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
+                  <a:sysClr val="windowText" lastClr="000000"/>
                 </a:solidFill>
                 <a:latin typeface="+mn-lt"/>
                 <a:ea typeface="+mn-ea"/>
@@ -365,10 +362,7 @@
           <a:pPr>
             <a:defRPr sz="1400" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
               <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
+                <a:sysClr val="windowText" lastClr="000000"/>
               </a:solidFill>
               <a:latin typeface="+mn-lt"/>
               <a:ea typeface="+mn-ea"/>
@@ -430,8 +424,8 @@
               <c:idx val="0"/>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="-5.671658954661897E-2"/>
-                  <c:y val="5.2424206774280765E-2"/>
+                  <c:x val="-8.8412760693586792E-2"/>
+                  <c:y val="4.8496243159469647E-2"/>
                 </c:manualLayout>
               </c:layout>
               <c:dLblPos val="r"/>
@@ -445,6 +439,50 @@
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{00000003-8B6B-49F9-82B2-8027036AE7E7}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="1"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-3.8488230783917374E-2"/>
+                  <c:y val="5.8918096732071351E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:dLblPos val="r"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000000-CDE4-4992-920C-5DDA582C7BC9}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="2"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-1.811210860419641E-2"/>
+                  <c:y val="3.1422984923771428E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:dLblPos val="r"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000003-CDE4-4992-920C-5DDA582C7BC9}"/>
                 </c:ext>
               </c:extLst>
             </c:dLbl>
@@ -466,10 +504,7 @@
                 <a:pPr>
                   <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="75000"/>
-                        <a:lumOff val="25000"/>
-                      </a:schemeClr>
+                      <a:sysClr val="windowText" lastClr="000000"/>
                     </a:solidFill>
                     <a:latin typeface="+mn-lt"/>
                     <a:ea typeface="+mn-ea"/>
@@ -591,8 +626,8 @@
               <c:idx val="0"/>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="-0.11115279259424249"/>
-                  <c:y val="-3.9346165764870059E-2"/>
+                  <c:x val="-8.8512591213452452E-2"/>
+                  <c:y val="5.8850673398278291E-2"/>
                 </c:manualLayout>
               </c:layout>
               <c:dLblPos val="r"/>
@@ -627,10 +662,7 @@
                 <a:pPr>
                   <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="75000"/>
-                        <a:lumOff val="25000"/>
-                      </a:schemeClr>
+                      <a:sysClr val="windowText" lastClr="000000"/>
                     </a:solidFill>
                     <a:latin typeface="+mn-lt"/>
                     <a:ea typeface="+mn-ea"/>
@@ -696,16 +728,16 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>188.5</c:v>
+                  <c:v>80.319999999999993</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>183.92</c:v>
+                  <c:v>75.41</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>218.71</c:v>
+                  <c:v>77.86</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>190.27</c:v>
+                  <c:v>80.790000000000006</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -771,6 +803,28 @@
                 </c:ext>
               </c:extLst>
             </c:dLbl>
+            <c:dLbl>
+              <c:idx val="1"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="2.0777940022180204E-2"/>
+                  <c:y val="2.9488430094064828E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:dLblPos val="r"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000001-CDE4-4992-920C-5DDA582C7BC9}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
             <c:spPr>
               <a:solidFill>
                 <a:schemeClr val="accent1">
@@ -789,10 +843,7 @@
                 <a:pPr>
                   <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="75000"/>
-                        <a:lumOff val="25000"/>
-                      </a:schemeClr>
+                      <a:sysClr val="windowText" lastClr="000000"/>
                     </a:solidFill>
                     <a:latin typeface="+mn-lt"/>
                     <a:ea typeface="+mn-ea"/>
@@ -890,6 +941,28 @@
             </c:spPr>
           </c:marker>
           <c:dLbls>
+            <c:dLbl>
+              <c:idx val="2"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-4.8908397832465575E-2"/>
+                  <c:y val="4.7163859113686181E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:dLblPos val="r"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000002-CDE4-4992-920C-5DDA582C7BC9}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
             <c:spPr>
               <a:solidFill>
                 <a:schemeClr val="accent2">
@@ -908,10 +981,7 @@
                 <a:pPr>
                   <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="75000"/>
-                        <a:lumOff val="25000"/>
-                      </a:schemeClr>
+                      <a:sysClr val="windowText" lastClr="000000"/>
                     </a:solidFill>
                     <a:latin typeface="+mn-lt"/>
                     <a:ea typeface="+mn-ea"/>
@@ -956,16 +1026,16 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>606.9</c:v>
+                  <c:v>245</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>588.4</c:v>
+                  <c:v>263.95</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>617</c:v>
+                  <c:v>251.55</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>571.6</c:v>
+                  <c:v>216.5</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1006,10 +1076,7 @@
                 <a:pPr>
                   <a:defRPr sz="1000" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="65000"/>
-                        <a:lumOff val="35000"/>
-                      </a:schemeClr>
+                      <a:sysClr val="windowText" lastClr="000000"/>
                     </a:solidFill>
                     <a:latin typeface="+mn-lt"/>
                     <a:ea typeface="+mn-ea"/>
@@ -1046,10 +1113,7 @@
               <a:pPr>
                 <a:defRPr sz="1000" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                   <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="65000"/>
-                      <a:lumOff val="35000"/>
-                    </a:schemeClr>
+                    <a:sysClr val="windowText" lastClr="000000"/>
                   </a:solidFill>
                   <a:latin typeface="+mn-lt"/>
                   <a:ea typeface="+mn-ea"/>
@@ -1084,10 +1148,7 @@
             <a:pPr>
               <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
+                  <a:sysClr val="windowText" lastClr="000000"/>
                 </a:solidFill>
                 <a:latin typeface="+mn-lt"/>
                 <a:ea typeface="+mn-ea"/>
@@ -1134,10 +1195,7 @@
                 <a:pPr>
                   <a:defRPr sz="1000" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="65000"/>
-                        <a:lumOff val="35000"/>
-                      </a:schemeClr>
+                      <a:sysClr val="windowText" lastClr="000000"/>
                     </a:solidFill>
                     <a:latin typeface="+mn-lt"/>
                     <a:ea typeface="+mn-ea"/>
@@ -1146,7 +1204,7 @@
                 </a:pPr>
                 <a:r>
                   <a:rPr lang="en-US"/>
-                  <a:t>Latency  in milliseconds</a:t>
+                  <a:t>Latency  in milliseconds (ms)</a:t>
                 </a:r>
               </a:p>
             </c:rich>
@@ -1166,10 +1224,7 @@
               <a:pPr>
                 <a:defRPr sz="1000" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                   <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="65000"/>
-                      <a:lumOff val="35000"/>
-                    </a:schemeClr>
+                    <a:sysClr val="windowText" lastClr="000000"/>
                   </a:solidFill>
                   <a:latin typeface="+mn-lt"/>
                   <a:ea typeface="+mn-ea"/>
@@ -1198,10 +1253,7 @@
             <a:pPr>
               <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
+                  <a:sysClr val="windowText" lastClr="000000"/>
                 </a:solidFill>
                 <a:latin typeface="+mn-lt"/>
                 <a:ea typeface="+mn-ea"/>
@@ -1240,10 +1292,7 @@
           <a:pPr>
             <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
               <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
+                <a:sysClr val="windowText" lastClr="000000"/>
               </a:solidFill>
               <a:latin typeface="+mn-lt"/>
               <a:ea typeface="+mn-ea"/>
@@ -1285,7 +1334,11 @@
     <a:lstStyle/>
     <a:p>
       <a:pPr>
-        <a:defRPr b="1"/>
+        <a:defRPr b="1">
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+        </a:defRPr>
       </a:pPr>
       <a:endParaRPr lang="en-US"/>
     </a:p>
@@ -1626,16 +1679,16 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>1369</c:v>
+                  <c:v>281.5</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1544</c:v>
+                  <c:v>274.8</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2305</c:v>
+                  <c:v>245.68</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>2630</c:v>
+                  <c:v>319.25</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2306,16 +2359,16 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>606.9</c:v>
+                  <c:v>245</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>588.4</c:v>
+                  <c:v>263.95</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>617</c:v>
+                  <c:v>251.55</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>571.6</c:v>
+                  <c:v>216.5</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2986,16 +3039,16 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>215.8</c:v>
+                  <c:v>101.62</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>204.69</c:v>
+                  <c:v>91.66</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>270</c:v>
+                  <c:v>93.57</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>224.98</c:v>
+                  <c:v>104.48</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3361,10 +3414,7 @@
             <a:pPr>
               <a:defRPr sz="1400" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
                 <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
+                  <a:sysClr val="windowText" lastClr="000000"/>
                 </a:solidFill>
                 <a:latin typeface="+mn-lt"/>
                 <a:ea typeface="+mn-ea"/>
@@ -3393,10 +3443,7 @@
           <a:pPr>
             <a:defRPr sz="1400" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
               <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
+                <a:sysClr val="windowText" lastClr="000000"/>
               </a:solidFill>
               <a:latin typeface="+mn-lt"/>
               <a:ea typeface="+mn-ea"/>
@@ -3453,6 +3500,151 @@
               <a:effectLst/>
             </c:spPr>
           </c:marker>
+          <c:dLbls>
+            <c:dLbl>
+              <c:idx val="0"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-0.10200760440870206"/>
+                  <c:y val="-1.5519402002002858E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:dLblPos val="r"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000004-313E-4299-B239-D5B406511E75}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="1"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-0.10101472072658906"/>
+                  <c:y val="-3.1038804004005858E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:dLblPos val="r"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000003-313E-4299-B239-D5B406511E75}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="2"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-9.5237942939749479E-2"/>
+                  <c:y val="-3.491865450450643E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:dLblPos val="r"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000000-313E-4299-B239-D5B406511E75}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="3"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-9.7494496762733668E-2"/>
+                  <c:y val="-3.8798505005007144E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:dLblPos val="r"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000001-313E-4299-B239-D5B406511E75}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1">
+                  <a:alpha val="30000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:sysClr val="windowText" lastClr="000000"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="l"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
           <c:cat>
             <c:numRef>
               <c:f>CAPs!$A$12:$A$15</c:f>
@@ -3537,8 +3729,8 @@
               <c:idx val="0"/>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="-4.793097387528953E-2"/>
-                  <c:y val="-4.8651609891958367E-2"/>
+                  <c:x val="-7.3130112005026253E-3"/>
+                  <c:y val="3.2825368234472505E-2"/>
                 </c:manualLayout>
               </c:layout>
               <c:dLblPos val="r"/>
@@ -3559,8 +3751,8 @@
               <c:idx val="1"/>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="-4.5507522710750876E-2"/>
-                  <c:y val="-2.6184092702980898E-2"/>
+                  <c:x val="-3.7650689377192922E-4"/>
+                  <c:y val="-4.1703504879752128E-2"/>
                 </c:manualLayout>
               </c:layout>
               <c:dLblPos val="r"/>
@@ -3581,8 +3773,8 @@
               <c:idx val="2"/>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="-4.3127422150565246E-2"/>
-                  <c:y val="-4.1162437495632545E-2"/>
+                  <c:x val="-2.0561825043874063E-2"/>
+                  <c:y val="-4.1162464309957895E-2"/>
                 </c:manualLayout>
               </c:layout>
               <c:dLblPos val="r"/>
@@ -3603,8 +3795,8 @@
               <c:idx val="3"/>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="-4.3127422150565163E-2"/>
-                  <c:y val="-4.1162437495632545E-2"/>
+                  <c:x val="-1.6048717397905764E-2"/>
+                  <c:y val="-4.504231481045861E-2"/>
                 </c:manualLayout>
               </c:layout>
               <c:dLblPos val="r"/>
@@ -3639,10 +3831,7 @@
                 <a:pPr>
                   <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="75000"/>
-                        <a:lumOff val="25000"/>
-                      </a:schemeClr>
+                      <a:sysClr val="windowText" lastClr="000000"/>
                     </a:solidFill>
                     <a:latin typeface="+mn-lt"/>
                     <a:ea typeface="+mn-ea"/>
@@ -3708,16 +3897,16 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>1369</c:v>
+                  <c:v>281.5</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1544</c:v>
+                  <c:v>274.8</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2305</c:v>
+                  <c:v>245.68</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>2630</c:v>
+                  <c:v>319.25</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3765,8 +3954,8 @@
               <c:idx val="0"/>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="-9.3152179397694643E-2"/>
-                  <c:y val="-2.0567213405736529E-2"/>
+                  <c:x val="-5.7047279777670816E-2"/>
+                  <c:y val="-6.3245534658673969E-2"/>
                 </c:manualLayout>
               </c:layout>
               <c:dLblPos val="r"/>
@@ -3801,10 +3990,7 @@
                 <a:pPr>
                   <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="75000"/>
-                        <a:lumOff val="25000"/>
-                      </a:schemeClr>
+                      <a:sysClr val="windowText" lastClr="000000"/>
                     </a:solidFill>
                     <a:latin typeface="+mn-lt"/>
                     <a:ea typeface="+mn-ea"/>
@@ -3906,8 +4092,8 @@
               <c:idx val="0"/>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="-7.1467654883632464E-2"/>
-                  <c:y val="7.4891723963258234E-3"/>
+                  <c:x val="-8.726360155584946E-2"/>
+                  <c:y val="3.0768130969088894E-2"/>
                 </c:manualLayout>
               </c:layout>
               <c:dLblPos val="r"/>
@@ -3928,8 +4114,8 @@
               <c:idx val="1"/>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="-2.3822551627877488E-3"/>
-                  <c:y val="1.1233758594488599E-2"/>
+                  <c:x val="8.9027362855818668E-3"/>
+                  <c:y val="3.4680304115016332E-2"/>
                 </c:manualLayout>
               </c:layout>
               <c:dLblPos val="r"/>
@@ -3950,8 +4136,8 @@
               <c:idx val="2"/>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="-8.734834691332685E-17"/>
-                  <c:y val="1.1233758594488736E-2"/>
+                  <c:x val="4.5131692346872896E-3"/>
+                  <c:y val="3.4525230954809354E-2"/>
                 </c:manualLayout>
               </c:layout>
               <c:dLblPos val="r"/>
@@ -3968,6 +4154,28 @@
                 </c:ext>
               </c:extLst>
             </c:dLbl>
+            <c:dLbl>
+              <c:idx val="3"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="2.2565538229841913E-3"/>
+                  <c:y val="3.4918654504506291E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:dLblPos val="r"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000002-313E-4299-B239-D5B406511E75}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
             <c:spPr>
               <a:solidFill>
                 <a:schemeClr val="accent2">
@@ -3980,18 +4188,13 @@
               <a:effectLst/>
             </c:spPr>
             <c:txPr>
-              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
-                <a:spAutoFit/>
-              </a:bodyPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
                   <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="75000"/>
-                        <a:lumOff val="25000"/>
-                      </a:schemeClr>
+                      <a:sysClr val="windowText" lastClr="000000"/>
                     </a:solidFill>
                     <a:latin typeface="+mn-lt"/>
                     <a:ea typeface="+mn-ea"/>
@@ -4036,16 +4239,16 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>215.8</c:v>
+                  <c:v>101.62</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>204.69</c:v>
+                  <c:v>91.66</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>270</c:v>
+                  <c:v>93.57</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>224.98</c:v>
+                  <c:v>104.48</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4086,10 +4289,7 @@
                 <a:pPr>
                   <a:defRPr sz="1000" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="65000"/>
-                        <a:lumOff val="35000"/>
-                      </a:schemeClr>
+                      <a:sysClr val="windowText" lastClr="000000"/>
                     </a:solidFill>
                     <a:latin typeface="+mn-lt"/>
                     <a:ea typeface="+mn-ea"/>
@@ -4126,10 +4326,7 @@
               <a:pPr>
                 <a:defRPr sz="1000" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                   <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="65000"/>
-                      <a:lumOff val="35000"/>
-                    </a:schemeClr>
+                    <a:sysClr val="windowText" lastClr="000000"/>
                   </a:solidFill>
                   <a:latin typeface="+mn-lt"/>
                   <a:ea typeface="+mn-ea"/>
@@ -4162,12 +4359,9 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="1200" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
+                  <a:sysClr val="windowText" lastClr="000000"/>
                 </a:solidFill>
                 <a:latin typeface="+mn-lt"/>
                 <a:ea typeface="+mn-ea"/>
@@ -4214,10 +4408,7 @@
                 <a:pPr>
                   <a:defRPr sz="1000" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="65000"/>
-                        <a:lumOff val="35000"/>
-                      </a:schemeClr>
+                      <a:sysClr val="windowText" lastClr="000000"/>
                     </a:solidFill>
                     <a:latin typeface="+mn-lt"/>
                     <a:ea typeface="+mn-ea"/>
@@ -4226,7 +4417,7 @@
                 </a:pPr>
                 <a:r>
                   <a:rPr lang="en-US"/>
-                  <a:t>Latency  in milliseconds</a:t>
+                  <a:t>Latency  in milliseconds (ms)</a:t>
                 </a:r>
               </a:p>
             </c:rich>
@@ -4246,10 +4437,7 @@
               <a:pPr>
                 <a:defRPr sz="1000" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                   <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="65000"/>
-                      <a:lumOff val="35000"/>
-                    </a:schemeClr>
+                    <a:sysClr val="windowText" lastClr="000000"/>
                   </a:solidFill>
                   <a:latin typeface="+mn-lt"/>
                   <a:ea typeface="+mn-ea"/>
@@ -4278,10 +4466,7 @@
             <a:pPr>
               <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
+                  <a:sysClr val="windowText" lastClr="000000"/>
                 </a:solidFill>
                 <a:latin typeface="+mn-lt"/>
                 <a:ea typeface="+mn-ea"/>
@@ -4320,10 +4505,7 @@
           <a:pPr>
             <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
               <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
+                <a:sysClr val="windowText" lastClr="000000"/>
               </a:solidFill>
               <a:latin typeface="+mn-lt"/>
               <a:ea typeface="+mn-ea"/>
@@ -4365,7 +4547,11 @@
     <a:lstStyle/>
     <a:p>
       <a:pPr>
-        <a:defRPr b="1"/>
+        <a:defRPr b="1">
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+        </a:defRPr>
       </a:pPr>
       <a:endParaRPr lang="en-US"/>
     </a:p>
@@ -4748,16 +4934,16 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>1369</c:v>
+                  <c:v>281.5</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1544</c:v>
+                  <c:v>274.8</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2305</c:v>
+                  <c:v>245.68</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>2630</c:v>
+                  <c:v>319.25</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5076,16 +5262,16 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>215.8</c:v>
+                  <c:v>101.62</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>204.69</c:v>
+                  <c:v>91.66</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>270</c:v>
+                  <c:v>93.57</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>224.98</c:v>
+                  <c:v>104.48</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -12933,32 +13119,32 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F15"/>
   <sheetViews>
-    <sheetView zoomScale="93" zoomScaleNormal="40" workbookViewId="0">
-      <selection activeCell="F18" sqref="F18"/>
+    <sheetView topLeftCell="I1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="Q17" sqref="Q17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
-    <col min="1" max="1" width="11.140625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="9.5703125" style="1" customWidth="1"/>
+    <col min="1" max="1" width="11.15625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="9.578125" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A1" s="17" t="s">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A1" s="18" t="s">
         <v>3</v>
       </c>
-      <c r="B1" s="17"/>
+      <c r="B1" s="18"/>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" s="2"/>
-      <c r="B2" s="19" t="s">
+      <c r="B2" s="20" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="20"/>
-      <c r="D2" s="20"/>
-      <c r="E2" s="21"/>
+      <c r="C2" s="21"/>
+      <c r="D2" s="21"/>
+      <c r="E2" s="22"/>
     </row>
-    <row r="3" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" s="2" t="s">
         <v>0</v>
       </c>
@@ -12975,7 +13161,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" s="2">
         <v>15</v>
       </c>
@@ -12992,7 +13178,7 @@
         <v>1243.5999999999999</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" s="2">
         <v>30</v>
       </c>
@@ -13009,7 +13195,7 @@
         <v>1317.65</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A6" s="2">
         <v>45</v>
       </c>
@@ -13026,7 +13212,7 @@
         <v>1378.6</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A7" s="2">
         <v>60</v>
       </c>
@@ -13043,27 +13229,27 @@
         <v>1332.3</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A8" s="3"/>
       <c r="B8" s="3"/>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A9" s="18" t="s">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A9" s="19" t="s">
         <v>4</v>
       </c>
-      <c r="B9" s="18"/>
+      <c r="B9" s="19"/>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A10" s="4"/>
-      <c r="B10" s="29" t="s">
+      <c r="B10" s="23" t="s">
         <v>1</v>
       </c>
-      <c r="C10" s="29"/>
-      <c r="D10" s="29"/>
-      <c r="E10" s="29"/>
-      <c r="F10" s="30"/>
+      <c r="C10" s="23"/>
+      <c r="D10" s="23"/>
+      <c r="E10" s="23"/>
+      <c r="F10" s="15"/>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A11" s="2" t="s">
         <v>0</v>
       </c>
@@ -13079,77 +13265,77 @@
       <c r="E11" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="F11" s="31"/>
+      <c r="F11" s="17"/>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A12" s="2">
         <v>15</v>
       </c>
       <c r="B12" s="2">
-        <v>188.5</v>
+        <v>80.319999999999993</v>
       </c>
       <c r="C12" s="2">
-        <v>606.9</v>
+        <v>245</v>
       </c>
       <c r="D12" s="2">
-        <v>215.8</v>
+        <v>101.62</v>
       </c>
       <c r="E12" s="2">
-        <v>1369</v>
+        <v>281.5</v>
       </c>
       <c r="F12" s="14"/>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A13" s="2">
         <v>30</v>
       </c>
       <c r="B13" s="2">
-        <v>183.92</v>
+        <v>75.41</v>
       </c>
       <c r="C13" s="2">
-        <v>588.4</v>
+        <v>263.95</v>
       </c>
       <c r="D13" s="2">
-        <v>204.69</v>
+        <v>91.66</v>
       </c>
       <c r="E13" s="2">
-        <v>1544</v>
+        <v>274.8</v>
       </c>
       <c r="F13" s="14"/>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A14" s="2">
         <v>45</v>
       </c>
       <c r="B14" s="2">
-        <v>218.71</v>
+        <v>77.86</v>
       </c>
       <c r="C14" s="2">
-        <v>617</v>
+        <v>251.55</v>
       </c>
       <c r="D14" s="2">
-        <v>270</v>
+        <v>93.57</v>
       </c>
       <c r="E14" s="2">
-        <v>2305</v>
+        <v>245.68</v>
       </c>
       <c r="F14" s="14"/>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A15" s="2">
         <v>60</v>
       </c>
       <c r="B15" s="2">
-        <v>190.27</v>
+        <v>80.790000000000006</v>
       </c>
       <c r="C15" s="2">
-        <v>571.6</v>
+        <v>216.5</v>
       </c>
       <c r="D15" s="2">
-        <v>224.98</v>
+        <v>104.48</v>
       </c>
       <c r="E15" s="2">
-        <v>2630</v>
+        <v>319.25</v>
       </c>
       <c r="F15" s="14"/>
     </row>
@@ -13170,32 +13356,32 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{57E4E959-0883-4ECC-862F-8D76850309AF}">
   <dimension ref="B1:G20"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="E31" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="S17" sqref="S17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
-    <col min="3" max="3" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B1" s="24" t="s">
+    <row r="1" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="B1" s="26" t="s">
         <v>3</v>
       </c>
-      <c r="C1" s="24"/>
+      <c r="C1" s="26"/>
     </row>
-    <row r="2" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B2" s="7"/>
-      <c r="C2" s="25" t="s">
+      <c r="C2" s="27" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="25"/>
-      <c r="E2" s="25"/>
-      <c r="F2" s="25"/>
+      <c r="D2" s="27"/>
+      <c r="E2" s="27"/>
+      <c r="F2" s="27"/>
       <c r="G2" s="13"/>
     </row>
-    <row r="3" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B3" s="8" t="s">
         <v>10</v>
       </c>
@@ -13212,7 +13398,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B4" s="8" t="s">
         <v>14</v>
       </c>
@@ -13229,7 +13415,7 @@
         <v>217.01400000000001</v>
       </c>
     </row>
-    <row r="5" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B5" s="8" t="s">
         <v>15</v>
       </c>
@@ -13246,7 +13432,7 @@
         <v>231.30840000000001</v>
       </c>
     </row>
-    <row r="6" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B6" s="8" t="s">
         <v>16</v>
       </c>
@@ -13263,34 +13449,34 @@
         <v>246.8314</v>
       </c>
     </row>
-    <row r="7" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B7" s="8"/>
       <c r="C7" s="8"/>
       <c r="D7" s="8"/>
       <c r="E7" s="8"/>
       <c r="F7" s="8"/>
     </row>
-    <row r="8" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B8" s="1"/>
       <c r="C8" s="1"/>
     </row>
-    <row r="9" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B9" s="22" t="s">
+    <row r="9" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="B9" s="24" t="s">
         <v>4</v>
       </c>
-      <c r="C9" s="23"/>
+      <c r="C9" s="25"/>
     </row>
-    <row r="10" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B10" s="7"/>
-      <c r="C10" s="25" t="s">
+      <c r="C10" s="27" t="s">
         <v>1</v>
       </c>
-      <c r="D10" s="25"/>
-      <c r="E10" s="25"/>
-      <c r="F10" s="26"/>
+      <c r="D10" s="27"/>
+      <c r="E10" s="27"/>
+      <c r="F10" s="28"/>
       <c r="G10" s="15"/>
     </row>
-    <row r="11" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B11" s="8" t="s">
         <v>10</v>
       </c>
@@ -13307,7 +13493,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="12" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B12" s="8" t="s">
         <v>14</v>
       </c>
@@ -13324,7 +13510,7 @@
         <v>75.41</v>
       </c>
     </row>
-    <row r="13" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B13" s="8" t="s">
         <v>15</v>
       </c>
@@ -13341,7 +13527,7 @@
         <v>81.8</v>
       </c>
     </row>
-    <row r="14" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B14" s="8" t="s">
         <v>16</v>
       </c>
@@ -13358,7 +13544,7 @@
         <v>82.2</v>
       </c>
     </row>
-    <row r="15" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B15" s="8"/>
       <c r="C15" s="8"/>
       <c r="D15" s="8"/>
@@ -13366,17 +13552,17 @@
       <c r="F15" s="8"/>
       <c r="G15" s="14"/>
     </row>
-    <row r="18" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:2" x14ac:dyDescent="0.55000000000000004">
       <c r="B18" s="12" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="19" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:2" x14ac:dyDescent="0.55000000000000004">
       <c r="B19" s="8" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="20" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:2" x14ac:dyDescent="0.55000000000000004">
       <c r="B20" s="8" t="s">
         <v>11</v>
       </c>
@@ -13398,11 +13584,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3230EC20-DD9D-463C-912A-268F704B20E9}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -13416,25 +13602,25 @@
       <selection activeCell="J18" sqref="J18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A1" s="24" t="s">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A1" s="26" t="s">
         <v>3</v>
       </c>
-      <c r="B1" s="24"/>
+      <c r="B1" s="26"/>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" s="7"/>
-      <c r="B2" s="26" t="s">
+      <c r="B2" s="28" t="s">
         <v>9</v>
       </c>
-      <c r="C2" s="27"/>
-      <c r="D2" s="27"/>
-      <c r="E2" s="27"/>
-      <c r="F2" s="28"/>
+      <c r="C2" s="29"/>
+      <c r="D2" s="29"/>
+      <c r="E2" s="29"/>
+      <c r="F2" s="30"/>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" s="8" t="s">
         <v>0</v>
       </c>
@@ -13454,7 +13640,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" s="8">
         <v>15</v>
       </c>
@@ -13464,7 +13650,7 @@
       <c r="E4" s="8"/>
       <c r="F4" s="8"/>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" s="8">
         <v>30</v>
       </c>
@@ -13474,7 +13660,7 @@
       <c r="E5" s="8"/>
       <c r="F5" s="8"/>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A6" s="8">
         <v>45</v>
       </c>
@@ -13484,7 +13670,7 @@
       <c r="E6" s="8"/>
       <c r="F6" s="8"/>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A7" s="8">
         <v>60</v>
       </c>
@@ -13494,27 +13680,27 @@
       <c r="E7" s="8"/>
       <c r="F7" s="8"/>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A8" s="1"/>
       <c r="B8" s="1"/>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A9" s="22" t="s">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A9" s="24" t="s">
         <v>4</v>
       </c>
-      <c r="B9" s="23"/>
+      <c r="B9" s="25"/>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A10" s="7"/>
-      <c r="B10" s="26" t="s">
+      <c r="B10" s="28" t="s">
         <v>9</v>
       </c>
-      <c r="C10" s="27"/>
-      <c r="D10" s="27"/>
-      <c r="E10" s="27"/>
-      <c r="F10" s="28"/>
+      <c r="C10" s="29"/>
+      <c r="D10" s="29"/>
+      <c r="E10" s="29"/>
+      <c r="F10" s="30"/>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A11" s="8" t="s">
         <v>0</v>
       </c>
@@ -13534,7 +13720,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A12" s="8">
         <v>15</v>
       </c>
@@ -13554,7 +13740,7 @@
         <v>1035</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A13" s="8">
         <v>30</v>
       </c>
@@ -13574,7 +13760,7 @@
         <v>1035</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A14" s="8">
         <v>45</v>
       </c>
@@ -13594,7 +13780,7 @@
         <v>1035</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A15" s="8">
         <v>60</v>
       </c>
